--- a/BballMVC/_Documentation/Analysis.xlsx
+++ b/BballMVC/_Documentation/Analysis.xlsx
@@ -2,22 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C125795-9B73-4A98-A8F0-F97057B95328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678FA59D-A4C9-43F7-A29F-9CA5AF81EBC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29325" yWindow="1365" windowWidth="26625" windowHeight="13095" activeTab="1" xr2:uid="{70556F97-A39D-40DB-BC31-3C8B0522173B}"/>
+    <workbookView minimized="1" xWindow="29880" yWindow="1620" windowWidth="25425" windowHeight="11835" activeTab="4" xr2:uid="{70556F97-A39D-40DB-BC31-3C8B0522173B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weeklys" sheetId="1" r:id="rId1"/>
     <sheet name="TM Results" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="scrTeamStats" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">scrTeamStats!$A$1:$AD$31</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294" uniqueCount="216">
   <si>
     <t>Date</t>
   </si>
@@ -533,6 +537,178 @@
   <si>
     <t>TOR</t>
   </si>
+  <si>
+    <t>Vol</t>
+  </si>
+  <si>
+    <t>TmStr</t>
+  </si>
+  <si>
+    <t>PtMade1</t>
+  </si>
+  <si>
+    <t>PtAtmp1</t>
+  </si>
+  <si>
+    <t>PtMade2</t>
+  </si>
+  <si>
+    <t>PtAtmp2</t>
+  </si>
+  <si>
+    <t>PtMade3</t>
+  </si>
+  <si>
+    <t>PtAtmp3</t>
+  </si>
+  <si>
+    <t>PtAtmpAllowed2</t>
+  </si>
+  <si>
+    <t>PtAtmpAllowed3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKC </t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR </t>
+  </si>
+  <si>
+    <t>Under_x000D__x000D__x000D_
+Wins</t>
+  </si>
+  <si>
+    <t>Under_x000D__x000D__x000D_
+Losses</t>
+  </si>
+  <si>
+    <t>Over_x000D__x000D__x000D__x000D_
+Wins</t>
+  </si>
+  <si>
+    <t>Over_x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+Losses</t>
+  </si>
+  <si>
+    <t>Pt
+Allowed2</t>
+  </si>
+  <si>
+    <t>Pt
+Allowed3</t>
+  </si>
+  <si>
+    <t>PtAtmp
+Allowed1</t>
+  </si>
+  <si>
+    <t>Pts
+Scored</t>
+  </si>
+  <si>
+    <t>Pts
+Allowed</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>Pt
+Allowed1</t>
+  </si>
+  <si>
+    <t>Allowed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -541,11 +717,11 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.00_);[Red]0.0"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.00_);[Red]0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,8 +744,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,8 +765,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -617,12 +806,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -637,10 +897,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -649,15 +909,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,6 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F319C4-49CC-4354-AF6A-0D96DDF8A0A2}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1825,9 +2112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66D3364-6B72-4A16-8EA7-BE620858BF8E}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
     </sheetView>
@@ -28301,10 +28589,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F10511-4F7A-4245-955D-266D9048D086}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BZ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30304,6 +30593,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B92AFF7-A7E5-4CFB-915F-E1D91D631345}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BZ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32319,4 +32609,2402 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971C28BF-123D-4486-98C4-A0150FC2C09A}">
+  <sheetPr codeName="Sheet5" filterMode="1"/>
+  <dimension ref="A1:AD31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="26" t="str">
+        <f>A1</f>
+        <v>Pts
+Scored</v>
+      </c>
+      <c r="G1" s="26" t="str">
+        <f>B1</f>
+        <v>Pts
+Allowed</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>103.2</v>
+      </c>
+      <c r="B2">
+        <v>101.8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2">
+        <v>4.8</v>
+      </c>
+      <c r="I2">
+        <v>202.4</v>
+      </c>
+      <c r="M2">
+        <v>20.9</v>
+      </c>
+      <c r="N2">
+        <v>26.2</v>
+      </c>
+      <c r="O2">
+        <v>25.1</v>
+      </c>
+      <c r="P2">
+        <v>54.8</v>
+      </c>
+      <c r="Q2">
+        <v>10.7</v>
+      </c>
+      <c r="R2">
+        <v>33</v>
+      </c>
+      <c r="S2">
+        <v>19.2</v>
+      </c>
+      <c r="T2">
+        <v>25.8</v>
+      </c>
+      <c r="U2">
+        <v>26.3</v>
+      </c>
+      <c r="V2">
+        <v>50.4</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>34.6</v>
+      </c>
+      <c r="Y2">
+        <v>203</v>
+      </c>
+      <c r="Z2">
+        <v>159</v>
+      </c>
+      <c r="AA2">
+        <v>105</v>
+      </c>
+      <c r="AB2">
+        <v>84</v>
+      </c>
+      <c r="AC2">
+        <v>98</v>
+      </c>
+      <c r="AD2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101.3</v>
+      </c>
+      <c r="B3">
+        <v>109.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I3">
+        <v>210.3</v>
+      </c>
+      <c r="M3">
+        <v>15.3</v>
+      </c>
+      <c r="N3">
+        <v>21.8</v>
+      </c>
+      <c r="O3">
+        <v>22.9</v>
+      </c>
+      <c r="P3">
+        <v>46.8</v>
+      </c>
+      <c r="Q3">
+        <v>13.4</v>
+      </c>
+      <c r="R3">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="S3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="T3">
+        <v>25</v>
+      </c>
+      <c r="U3">
+        <v>30.5</v>
+      </c>
+      <c r="V3">
+        <v>55.3</v>
+      </c>
+      <c r="W3">
+        <v>9.6</v>
+      </c>
+      <c r="X3">
+        <v>27.5</v>
+      </c>
+      <c r="Y3">
+        <v>203</v>
+      </c>
+      <c r="Z3">
+        <v>159</v>
+      </c>
+      <c r="AA3">
+        <v>105</v>
+      </c>
+      <c r="AB3">
+        <v>84</v>
+      </c>
+      <c r="AC3">
+        <v>98</v>
+      </c>
+      <c r="AD3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>118.2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I4">
+        <v>236.7</v>
+      </c>
+      <c r="M4">
+        <v>18.2</v>
+      </c>
+      <c r="N4">
+        <v>26.2</v>
+      </c>
+      <c r="O4">
+        <v>29.3</v>
+      </c>
+      <c r="P4">
+        <v>53.5</v>
+      </c>
+      <c r="Q4">
+        <v>13.4</v>
+      </c>
+      <c r="R4">
+        <v>38.5</v>
+      </c>
+      <c r="S4">
+        <v>21.6</v>
+      </c>
+      <c r="T4">
+        <v>26.7</v>
+      </c>
+      <c r="U4">
+        <v>25.5</v>
+      </c>
+      <c r="V4">
+        <v>50.8</v>
+      </c>
+      <c r="W4">
+        <v>15.2</v>
+      </c>
+      <c r="X4">
+        <v>44.3</v>
+      </c>
+      <c r="Y4">
+        <v>203</v>
+      </c>
+      <c r="Z4">
+        <v>159</v>
+      </c>
+      <c r="AA4">
+        <v>105</v>
+      </c>
+      <c r="AB4">
+        <v>84</v>
+      </c>
+      <c r="AC4">
+        <v>98</v>
+      </c>
+      <c r="AD4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>117.8</v>
+      </c>
+      <c r="B5">
+        <v>112.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>234.9</v>
+      </c>
+      <c r="M5">
+        <v>13.9</v>
+      </c>
+      <c r="N5">
+        <v>16.8</v>
+      </c>
+      <c r="O5">
+        <v>32.9</v>
+      </c>
+      <c r="P5">
+        <v>58</v>
+      </c>
+      <c r="Q5">
+        <v>12.7</v>
+      </c>
+      <c r="R5">
+        <v>31</v>
+      </c>
+      <c r="S5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="T5">
+        <v>22.3</v>
+      </c>
+      <c r="U5">
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <v>58.3</v>
+      </c>
+      <c r="W5">
+        <v>11.7</v>
+      </c>
+      <c r="X5">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="Y5">
+        <v>203</v>
+      </c>
+      <c r="Z5">
+        <v>159</v>
+      </c>
+      <c r="AA5">
+        <v>105</v>
+      </c>
+      <c r="AB5">
+        <v>84</v>
+      </c>
+      <c r="AC5">
+        <v>98</v>
+      </c>
+      <c r="AD5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>109.7</v>
+      </c>
+      <c r="B6">
+        <v>116.4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6">
+        <v>5.4</v>
+      </c>
+      <c r="I6">
+        <v>221.8</v>
+      </c>
+      <c r="M6">
+        <v>23.8</v>
+      </c>
+      <c r="N6">
+        <v>28.1</v>
+      </c>
+      <c r="O6">
+        <v>27.8</v>
+      </c>
+      <c r="P6">
+        <v>54.3</v>
+      </c>
+      <c r="Q6">
+        <v>10.1</v>
+      </c>
+      <c r="R6">
+        <v>34.5</v>
+      </c>
+      <c r="S6">
+        <v>13.8</v>
+      </c>
+      <c r="T6">
+        <v>17.5</v>
+      </c>
+      <c r="U6">
+        <v>30.3</v>
+      </c>
+      <c r="V6">
+        <v>56.8</v>
+      </c>
+      <c r="W6">
+        <v>14</v>
+      </c>
+      <c r="X6">
+        <v>34.5</v>
+      </c>
+      <c r="Y6">
+        <v>203</v>
+      </c>
+      <c r="Z6">
+        <v>159</v>
+      </c>
+      <c r="AA6">
+        <v>105</v>
+      </c>
+      <c r="AB6">
+        <v>84</v>
+      </c>
+      <c r="AC6">
+        <v>98</v>
+      </c>
+      <c r="AD6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>117.4</v>
+      </c>
+      <c r="B7">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7">
+        <v>5.8</v>
+      </c>
+      <c r="I7">
+        <v>224.2</v>
+      </c>
+      <c r="M7">
+        <v>20.9</v>
+      </c>
+      <c r="N7">
+        <v>26.2</v>
+      </c>
+      <c r="O7">
+        <v>27.4</v>
+      </c>
+      <c r="P7">
+        <v>51.3</v>
+      </c>
+      <c r="Q7">
+        <v>13.9</v>
+      </c>
+      <c r="R7">
+        <v>35.1</v>
+      </c>
+      <c r="S7">
+        <v>17.2</v>
+      </c>
+      <c r="T7">
+        <v>21.1</v>
+      </c>
+      <c r="U7">
+        <v>27.3</v>
+      </c>
+      <c r="V7">
+        <v>55.7</v>
+      </c>
+      <c r="W7">
+        <v>12.4</v>
+      </c>
+      <c r="X7">
+        <v>35.6</v>
+      </c>
+      <c r="Y7">
+        <v>203</v>
+      </c>
+      <c r="Z7">
+        <v>159</v>
+      </c>
+      <c r="AA7">
+        <v>105</v>
+      </c>
+      <c r="AB7">
+        <v>84</v>
+      </c>
+      <c r="AC7">
+        <v>98</v>
+      </c>
+      <c r="AD7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>101.8</v>
+      </c>
+      <c r="B8">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8">
+        <v>6.2</v>
+      </c>
+      <c r="I8">
+        <v>211.7</v>
+      </c>
+      <c r="M8">
+        <v>14.3</v>
+      </c>
+      <c r="N8">
+        <v>21.5</v>
+      </c>
+      <c r="O8">
+        <v>22.6</v>
+      </c>
+      <c r="P8">
+        <v>51.9</v>
+      </c>
+      <c r="Q8">
+        <v>14.1</v>
+      </c>
+      <c r="R8">
+        <v>35.1</v>
+      </c>
+      <c r="S8">
+        <v>12.9</v>
+      </c>
+      <c r="T8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="U8">
+        <v>28.8</v>
+      </c>
+      <c r="V8">
+        <v>50.8</v>
+      </c>
+      <c r="W8">
+        <v>13.5</v>
+      </c>
+      <c r="X8">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>203</v>
+      </c>
+      <c r="Z8">
+        <v>159</v>
+      </c>
+      <c r="AA8">
+        <v>105</v>
+      </c>
+      <c r="AB8">
+        <v>84</v>
+      </c>
+      <c r="AC8">
+        <v>98</v>
+      </c>
+      <c r="AD8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>114.5</v>
+      </c>
+      <c r="B9">
+        <v>106.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9">
+        <v>7.6</v>
+      </c>
+      <c r="I9">
+        <v>226.9</v>
+      </c>
+      <c r="M9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N9">
+        <v>24.8</v>
+      </c>
+      <c r="O9">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="P9">
+        <v>57.5</v>
+      </c>
+      <c r="Q9">
+        <v>9.6</v>
+      </c>
+      <c r="R9">
+        <v>30.8</v>
+      </c>
+      <c r="S9">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T9">
+        <v>23.5</v>
+      </c>
+      <c r="U9">
+        <v>24.6</v>
+      </c>
+      <c r="V9">
+        <v>54.5</v>
+      </c>
+      <c r="W9">
+        <v>13.4</v>
+      </c>
+      <c r="X9">
+        <v>37.5</v>
+      </c>
+      <c r="Y9">
+        <v>203</v>
+      </c>
+      <c r="Z9">
+        <v>159</v>
+      </c>
+      <c r="AA9">
+        <v>105</v>
+      </c>
+      <c r="AB9">
+        <v>84</v>
+      </c>
+      <c r="AC9">
+        <v>98</v>
+      </c>
+      <c r="AD9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>115</v>
+      </c>
+      <c r="B10">
+        <v>122.9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10">
+        <v>7.8</v>
+      </c>
+      <c r="I10">
+        <v>229.9</v>
+      </c>
+      <c r="M10">
+        <v>16.5</v>
+      </c>
+      <c r="N10">
+        <v>21.8</v>
+      </c>
+      <c r="O10">
+        <v>32.9</v>
+      </c>
+      <c r="P10">
+        <v>56.6</v>
+      </c>
+      <c r="Q10">
+        <v>10.9</v>
+      </c>
+      <c r="R10">
+        <v>32.9</v>
+      </c>
+      <c r="S10">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="T10">
+        <v>25</v>
+      </c>
+      <c r="U10">
+        <v>25.3</v>
+      </c>
+      <c r="V10">
+        <v>47.3</v>
+      </c>
+      <c r="W10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="X10">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Y10">
+        <v>203</v>
+      </c>
+      <c r="Z10">
+        <v>159</v>
+      </c>
+      <c r="AA10">
+        <v>105</v>
+      </c>
+      <c r="AB10">
+        <v>84</v>
+      </c>
+      <c r="AC10">
+        <v>98</v>
+      </c>
+      <c r="AD10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>118.4</v>
+      </c>
+      <c r="B11">
+        <v>117.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I11">
+        <v>243.3</v>
+      </c>
+      <c r="M11">
+        <v>26.3</v>
+      </c>
+      <c r="N11">
+        <v>32.5</v>
+      </c>
+      <c r="O11">
+        <v>29.1</v>
+      </c>
+      <c r="P11">
+        <v>61</v>
+      </c>
+      <c r="Q11">
+        <v>11.3</v>
+      </c>
+      <c r="R11">
+        <v>25.8</v>
+      </c>
+      <c r="S11">
+        <v>16.8</v>
+      </c>
+      <c r="T11">
+        <v>20</v>
+      </c>
+      <c r="U11">
+        <v>32.4</v>
+      </c>
+      <c r="V11">
+        <v>59.5</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="X11">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Y11">
+        <v>203</v>
+      </c>
+      <c r="Z11">
+        <v>159</v>
+      </c>
+      <c r="AA11">
+        <v>105</v>
+      </c>
+      <c r="AB11">
+        <v>84</v>
+      </c>
+      <c r="AC11">
+        <v>98</v>
+      </c>
+      <c r="AD11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>118.9</v>
+      </c>
+      <c r="B12">
+        <v>117.7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I12">
+        <v>228.6</v>
+      </c>
+      <c r="M12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N12">
+        <v>26.8</v>
+      </c>
+      <c r="O12">
+        <v>29.5</v>
+      </c>
+      <c r="P12">
+        <v>53.8</v>
+      </c>
+      <c r="Q12">
+        <v>13.5</v>
+      </c>
+      <c r="R12">
+        <v>37</v>
+      </c>
+      <c r="S12">
+        <v>21</v>
+      </c>
+      <c r="T12">
+        <v>25.8</v>
+      </c>
+      <c r="U12">
+        <v>31.7</v>
+      </c>
+      <c r="V12">
+        <v>56.8</v>
+      </c>
+      <c r="W12">
+        <v>11.1</v>
+      </c>
+      <c r="X12">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="Y12">
+        <v>203</v>
+      </c>
+      <c r="Z12">
+        <v>159</v>
+      </c>
+      <c r="AA12">
+        <v>105</v>
+      </c>
+      <c r="AB12">
+        <v>84</v>
+      </c>
+      <c r="AC12">
+        <v>98</v>
+      </c>
+      <c r="AD12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>111.1</v>
+      </c>
+      <c r="B13">
+        <v>114.8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I13">
+        <v>219</v>
+      </c>
+      <c r="M13">
+        <v>20.8</v>
+      </c>
+      <c r="N13">
+        <v>28.3</v>
+      </c>
+      <c r="O13">
+        <v>27.9</v>
+      </c>
+      <c r="P13">
+        <v>53</v>
+      </c>
+      <c r="Q13">
+        <v>11.5</v>
+      </c>
+      <c r="R13">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="S13">
+        <v>19.5</v>
+      </c>
+      <c r="T13">
+        <v>24.8</v>
+      </c>
+      <c r="U13">
+        <v>27.4</v>
+      </c>
+      <c r="V13">
+        <v>48.8</v>
+      </c>
+      <c r="W13">
+        <v>13.5</v>
+      </c>
+      <c r="X13">
+        <v>32.5</v>
+      </c>
+      <c r="Y13">
+        <v>203</v>
+      </c>
+      <c r="Z13">
+        <v>159</v>
+      </c>
+      <c r="AA13">
+        <v>105</v>
+      </c>
+      <c r="AB13">
+        <v>84</v>
+      </c>
+      <c r="AC13">
+        <v>98</v>
+      </c>
+      <c r="AD13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>107.9</v>
+      </c>
+      <c r="B14">
+        <v>107.3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14">
+        <v>9.6</v>
+      </c>
+      <c r="I14">
+        <v>216.6</v>
+      </c>
+      <c r="M14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>33.6</v>
+      </c>
+      <c r="P14">
+        <v>58.3</v>
+      </c>
+      <c r="Q14">
+        <v>10.3</v>
+      </c>
+      <c r="R14">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="S14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="T14">
+        <v>27.8</v>
+      </c>
+      <c r="U14">
+        <v>29.9</v>
+      </c>
+      <c r="V14">
+        <v>49.3</v>
+      </c>
+      <c r="W14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="X14">
+        <v>29.5</v>
+      </c>
+      <c r="Y14">
+        <v>203</v>
+      </c>
+      <c r="Z14">
+        <v>159</v>
+      </c>
+      <c r="AA14">
+        <v>105</v>
+      </c>
+      <c r="AB14">
+        <v>84</v>
+      </c>
+      <c r="AC14">
+        <v>98</v>
+      </c>
+      <c r="AD14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>108.7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15">
+        <v>9.9</v>
+      </c>
+      <c r="F15" s="26">
+        <f>A15</f>
+        <v>114</v>
+      </c>
+      <c r="G15" s="26">
+        <f>B15</f>
+        <v>108.7</v>
+      </c>
+      <c r="H15">
+        <f>F15+G15</f>
+        <v>222.7</v>
+      </c>
+      <c r="I15">
+        <v>235.7</v>
+      </c>
+      <c r="J15" s="34">
+        <f>K15+L15</f>
+        <v>222.7</v>
+      </c>
+      <c r="K15" s="33">
+        <f>M15+O15*2+Q15*3</f>
+        <v>114</v>
+      </c>
+      <c r="L15" s="33">
+        <f>S15+U15*2+W15*3</f>
+        <v>108.69999999999999</v>
+      </c>
+      <c r="M15">
+        <v>24.1</v>
+      </c>
+      <c r="N15">
+        <v>28</v>
+      </c>
+      <c r="O15">
+        <v>22.3</v>
+      </c>
+      <c r="P15">
+        <v>40.5</v>
+      </c>
+      <c r="Q15">
+        <v>15.1</v>
+      </c>
+      <c r="R15">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="S15">
+        <v>22.9</v>
+      </c>
+      <c r="T15">
+        <v>27.5</v>
+      </c>
+      <c r="U15">
+        <v>21.6</v>
+      </c>
+      <c r="V15">
+        <v>43.3</v>
+      </c>
+      <c r="W15">
+        <v>14.2</v>
+      </c>
+      <c r="X15">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="Y15">
+        <v>203</v>
+      </c>
+      <c r="Z15">
+        <v>159</v>
+      </c>
+      <c r="AA15">
+        <v>105</v>
+      </c>
+      <c r="AB15">
+        <v>84</v>
+      </c>
+      <c r="AC15">
+        <v>98</v>
+      </c>
+      <c r="AD15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>108.9</v>
+      </c>
+      <c r="B16">
+        <v>114.7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I16">
+        <v>229.3</v>
+      </c>
+      <c r="M16">
+        <v>18.3</v>
+      </c>
+      <c r="N16">
+        <v>25.7</v>
+      </c>
+      <c r="O16">
+        <v>34.5</v>
+      </c>
+      <c r="P16">
+        <v>62.4</v>
+      </c>
+      <c r="Q16">
+        <v>7.2</v>
+      </c>
+      <c r="R16">
+        <v>21.1</v>
+      </c>
+      <c r="S16">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="T16">
+        <v>26.6</v>
+      </c>
+      <c r="U16">
+        <v>27.5</v>
+      </c>
+      <c r="V16">
+        <v>52.7</v>
+      </c>
+      <c r="W16">
+        <v>13.1</v>
+      </c>
+      <c r="X16">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Y16">
+        <v>203</v>
+      </c>
+      <c r="Z16">
+        <v>159</v>
+      </c>
+      <c r="AA16">
+        <v>105</v>
+      </c>
+      <c r="AB16">
+        <v>84</v>
+      </c>
+      <c r="AC16">
+        <v>98</v>
+      </c>
+      <c r="AD16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <v>125.1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17">
+        <v>10.3</v>
+      </c>
+      <c r="I17">
+        <v>244.9</v>
+      </c>
+      <c r="M17">
+        <v>14.7</v>
+      </c>
+      <c r="N17">
+        <v>19.5</v>
+      </c>
+      <c r="O17">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P17">
+        <v>54.3</v>
+      </c>
+      <c r="Q17">
+        <v>13.3</v>
+      </c>
+      <c r="R17">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="S17">
+        <v>18.7</v>
+      </c>
+      <c r="T17">
+        <v>26.3</v>
+      </c>
+      <c r="U17">
+        <v>30.1</v>
+      </c>
+      <c r="V17">
+        <v>54.5</v>
+      </c>
+      <c r="W17">
+        <v>15.4</v>
+      </c>
+      <c r="X17">
+        <v>34.5</v>
+      </c>
+      <c r="Y17">
+        <v>203</v>
+      </c>
+      <c r="Z17">
+        <v>159</v>
+      </c>
+      <c r="AA17">
+        <v>105</v>
+      </c>
+      <c r="AB17">
+        <v>84</v>
+      </c>
+      <c r="AC17">
+        <v>98</v>
+      </c>
+      <c r="AD17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <v>111.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18">
+        <v>10.4</v>
+      </c>
+      <c r="I18">
+        <v>217.1</v>
+      </c>
+      <c r="M18">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N18">
+        <v>24</v>
+      </c>
+      <c r="O18">
+        <v>28.5</v>
+      </c>
+      <c r="P18">
+        <v>59.5</v>
+      </c>
+      <c r="Q18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R18">
+        <v>30</v>
+      </c>
+      <c r="S18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="T18">
+        <v>24.8</v>
+      </c>
+      <c r="U18">
+        <v>27.1</v>
+      </c>
+      <c r="V18">
+        <v>52</v>
+      </c>
+      <c r="W18">
+        <v>12.2</v>
+      </c>
+      <c r="X18">
+        <v>35.5</v>
+      </c>
+      <c r="Y18">
+        <v>203</v>
+      </c>
+      <c r="Z18">
+        <v>159</v>
+      </c>
+      <c r="AA18">
+        <v>105</v>
+      </c>
+      <c r="AB18">
+        <v>84</v>
+      </c>
+      <c r="AC18">
+        <v>98</v>
+      </c>
+      <c r="AD18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>108.1</v>
+      </c>
+      <c r="B19">
+        <v>112.9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19">
+        <v>10.6</v>
+      </c>
+      <c r="I19">
+        <v>218</v>
+      </c>
+      <c r="M19">
+        <v>18.2</v>
+      </c>
+      <c r="N19">
+        <v>23.5</v>
+      </c>
+      <c r="O19">
+        <v>25.3</v>
+      </c>
+      <c r="P19">
+        <v>51.3</v>
+      </c>
+      <c r="Q19">
+        <v>13.1</v>
+      </c>
+      <c r="R19">
+        <v>38</v>
+      </c>
+      <c r="S19">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="T19">
+        <v>23.8</v>
+      </c>
+      <c r="U19">
+        <v>33.4</v>
+      </c>
+      <c r="V19">
+        <v>61.3</v>
+      </c>
+      <c r="W19">
+        <v>9.5</v>
+      </c>
+      <c r="X19">
+        <v>28.1</v>
+      </c>
+      <c r="Y19">
+        <v>203</v>
+      </c>
+      <c r="Z19">
+        <v>159</v>
+      </c>
+      <c r="AA19">
+        <v>105</v>
+      </c>
+      <c r="AB19">
+        <v>84</v>
+      </c>
+      <c r="AC19">
+        <v>98</v>
+      </c>
+      <c r="AD19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>117.1</v>
+      </c>
+      <c r="B20">
+        <v>110.2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20">
+        <v>11.2</v>
+      </c>
+      <c r="F20" s="26">
+        <f>A20</f>
+        <v>117.1</v>
+      </c>
+      <c r="G20" s="26">
+        <f>B20</f>
+        <v>110.2</v>
+      </c>
+      <c r="H20">
+        <f>F20+G20</f>
+        <v>227.3</v>
+      </c>
+      <c r="I20">
+        <v>230.4</v>
+      </c>
+      <c r="J20" s="34">
+        <f>K20+L20</f>
+        <v>227.3</v>
+      </c>
+      <c r="K20" s="33">
+        <f>M20+O20*2+Q20*3</f>
+        <v>117.1</v>
+      </c>
+      <c r="L20" s="33">
+        <f>S20+U20*2+W20*3</f>
+        <v>110.2</v>
+      </c>
+      <c r="M20">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N20">
+        <v>23.5</v>
+      </c>
+      <c r="O20">
+        <v>27.5</v>
+      </c>
+      <c r="P20">
+        <v>49.5</v>
+      </c>
+      <c r="Q20">
+        <v>14.5</v>
+      </c>
+      <c r="R20">
+        <v>34.5</v>
+      </c>
+      <c r="S20">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T20">
+        <v>23.5</v>
+      </c>
+      <c r="U20">
+        <v>24.8</v>
+      </c>
+      <c r="V20">
+        <v>46</v>
+      </c>
+      <c r="W20">
+        <v>14.5</v>
+      </c>
+      <c r="X20">
+        <v>40.5</v>
+      </c>
+      <c r="Y20">
+        <v>203</v>
+      </c>
+      <c r="Z20">
+        <v>159</v>
+      </c>
+      <c r="AA20">
+        <v>105</v>
+      </c>
+      <c r="AB20">
+        <v>84</v>
+      </c>
+      <c r="AC20">
+        <v>98</v>
+      </c>
+      <c r="AD20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>112.8</v>
+      </c>
+      <c r="B21">
+        <v>118.9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21">
+        <v>11.3</v>
+      </c>
+      <c r="I21">
+        <v>237.4</v>
+      </c>
+      <c r="M21">
+        <v>16.5</v>
+      </c>
+      <c r="N21">
+        <v>22.8</v>
+      </c>
+      <c r="O21">
+        <v>28.5</v>
+      </c>
+      <c r="P21">
+        <v>54.3</v>
+      </c>
+      <c r="Q21">
+        <v>13.1</v>
+      </c>
+      <c r="R21">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="S21">
+        <v>15.9</v>
+      </c>
+      <c r="T21">
+        <v>23</v>
+      </c>
+      <c r="U21">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="V21">
+        <v>59</v>
+      </c>
+      <c r="W21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="X21">
+        <v>31.5</v>
+      </c>
+      <c r="Y21">
+        <v>203</v>
+      </c>
+      <c r="Z21">
+        <v>159</v>
+      </c>
+      <c r="AA21">
+        <v>105</v>
+      </c>
+      <c r="AB21">
+        <v>84</v>
+      </c>
+      <c r="AC21">
+        <v>98</v>
+      </c>
+      <c r="AD21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>115.6</v>
+      </c>
+      <c r="B22">
+        <v>113.8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22">
+        <v>11.3</v>
+      </c>
+      <c r="I22">
+        <v>224.9</v>
+      </c>
+      <c r="M22">
+        <v>23.4</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>26.9</v>
+      </c>
+      <c r="P22">
+        <v>51.5</v>
+      </c>
+      <c r="Q22">
+        <v>12.8</v>
+      </c>
+      <c r="R22">
+        <v>32.5</v>
+      </c>
+      <c r="S22">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T22">
+        <v>25.8</v>
+      </c>
+      <c r="U22">
+        <v>31.2</v>
+      </c>
+      <c r="V22">
+        <v>51.8</v>
+      </c>
+      <c r="W22">
+        <v>10.6</v>
+      </c>
+      <c r="X22">
+        <v>34.5</v>
+      </c>
+      <c r="Y22">
+        <v>203</v>
+      </c>
+      <c r="Z22">
+        <v>159</v>
+      </c>
+      <c r="AA22">
+        <v>105</v>
+      </c>
+      <c r="AB22">
+        <v>84</v>
+      </c>
+      <c r="AC22">
+        <v>98</v>
+      </c>
+      <c r="AD22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>106.7</v>
+      </c>
+      <c r="B23">
+        <v>112.3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23">
+        <v>11.6</v>
+      </c>
+      <c r="I23">
+        <v>226.9</v>
+      </c>
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <v>22.8</v>
+      </c>
+      <c r="O23">
+        <v>28.9</v>
+      </c>
+      <c r="P23">
+        <v>50.3</v>
+      </c>
+      <c r="Q23">
+        <v>10.3</v>
+      </c>
+      <c r="R23">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="S23">
+        <v>16.8</v>
+      </c>
+      <c r="T23">
+        <v>19.8</v>
+      </c>
+      <c r="U23">
+        <v>31.4</v>
+      </c>
+      <c r="V23">
+        <v>60.3</v>
+      </c>
+      <c r="W23">
+        <v>10.9</v>
+      </c>
+      <c r="X23">
+        <v>30</v>
+      </c>
+      <c r="Y23">
+        <v>203</v>
+      </c>
+      <c r="Z23">
+        <v>159</v>
+      </c>
+      <c r="AA23">
+        <v>105</v>
+      </c>
+      <c r="AB23">
+        <v>84</v>
+      </c>
+      <c r="AC23">
+        <v>98</v>
+      </c>
+      <c r="AD23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>123.6</v>
+      </c>
+      <c r="B24">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24">
+        <v>11.8</v>
+      </c>
+      <c r="I24">
+        <v>231.4</v>
+      </c>
+      <c r="M24">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N24">
+        <v>23.8</v>
+      </c>
+      <c r="O24">
+        <v>32.1</v>
+      </c>
+      <c r="P24">
+        <v>53.8</v>
+      </c>
+      <c r="Q24">
+        <v>13.6</v>
+      </c>
+      <c r="R24">
+        <v>36</v>
+      </c>
+      <c r="S24">
+        <v>19.7</v>
+      </c>
+      <c r="T24">
+        <v>24</v>
+      </c>
+      <c r="U24">
+        <v>31.5</v>
+      </c>
+      <c r="V24">
+        <v>60.8</v>
+      </c>
+      <c r="W24">
+        <v>9.1</v>
+      </c>
+      <c r="X24">
+        <v>29.8</v>
+      </c>
+      <c r="Y24">
+        <v>203</v>
+      </c>
+      <c r="Z24">
+        <v>159</v>
+      </c>
+      <c r="AA24">
+        <v>105</v>
+      </c>
+      <c r="AB24">
+        <v>84</v>
+      </c>
+      <c r="AC24">
+        <v>98</v>
+      </c>
+      <c r="AD24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>114.5</v>
+      </c>
+      <c r="B25">
+        <v>127.9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25">
+        <v>12.9</v>
+      </c>
+      <c r="I25">
+        <v>247</v>
+      </c>
+      <c r="M25">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N25">
+        <v>24.3</v>
+      </c>
+      <c r="O25">
+        <v>33.6</v>
+      </c>
+      <c r="P25">
+        <v>53.5</v>
+      </c>
+      <c r="Q25">
+        <v>9.9</v>
+      </c>
+      <c r="R25">
+        <v>30.5</v>
+      </c>
+      <c r="S25">
+        <v>22</v>
+      </c>
+      <c r="T25">
+        <v>28.5</v>
+      </c>
+      <c r="U25">
+        <v>27.9</v>
+      </c>
+      <c r="V25">
+        <v>54.5</v>
+      </c>
+      <c r="W25">
+        <v>16.7</v>
+      </c>
+      <c r="X25">
+        <v>33.5</v>
+      </c>
+      <c r="Y25">
+        <v>203</v>
+      </c>
+      <c r="Z25">
+        <v>159</v>
+      </c>
+      <c r="AA25">
+        <v>105</v>
+      </c>
+      <c r="AB25">
+        <v>84</v>
+      </c>
+      <c r="AC25">
+        <v>98</v>
+      </c>
+      <c r="AD25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>119.1</v>
+      </c>
+      <c r="B26">
+        <v>115.3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26">
+        <v>13.1</v>
+      </c>
+      <c r="I26">
+        <v>233.1</v>
+      </c>
+      <c r="M26">
+        <v>21.5</v>
+      </c>
+      <c r="N26">
+        <v>26.4</v>
+      </c>
+      <c r="O26">
+        <v>29.6</v>
+      </c>
+      <c r="P26">
+        <v>55.6</v>
+      </c>
+      <c r="Q26">
+        <v>12.8</v>
+      </c>
+      <c r="R26">
+        <v>34</v>
+      </c>
+      <c r="S26">
+        <v>20.9</v>
+      </c>
+      <c r="T26">
+        <v>28.6</v>
+      </c>
+      <c r="U26">
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <v>49.8</v>
+      </c>
+      <c r="W26">
+        <v>14.8</v>
+      </c>
+      <c r="X26">
+        <v>38.5</v>
+      </c>
+      <c r="Y26">
+        <v>203</v>
+      </c>
+      <c r="Z26">
+        <v>159</v>
+      </c>
+      <c r="AA26">
+        <v>105</v>
+      </c>
+      <c r="AB26">
+        <v>84</v>
+      </c>
+      <c r="AC26">
+        <v>98</v>
+      </c>
+      <c r="AD26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>118</v>
+      </c>
+      <c r="B27">
+        <v>120.2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27">
+        <v>14.9</v>
+      </c>
+      <c r="I27">
+        <v>233.7</v>
+      </c>
+      <c r="M27">
+        <v>21.3</v>
+      </c>
+      <c r="N27">
+        <v>27.5</v>
+      </c>
+      <c r="O27">
+        <v>28.4</v>
+      </c>
+      <c r="P27">
+        <v>56</v>
+      </c>
+      <c r="Q27">
+        <v>13.3</v>
+      </c>
+      <c r="R27">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="S27">
+        <v>22.8</v>
+      </c>
+      <c r="T27">
+        <v>28.8</v>
+      </c>
+      <c r="U27">
+        <v>30.1</v>
+      </c>
+      <c r="V27">
+        <v>57.8</v>
+      </c>
+      <c r="W27">
+        <v>12.4</v>
+      </c>
+      <c r="X27">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y27">
+        <v>203</v>
+      </c>
+      <c r="Z27">
+        <v>159</v>
+      </c>
+      <c r="AA27">
+        <v>105</v>
+      </c>
+      <c r="AB27">
+        <v>84</v>
+      </c>
+      <c r="AC27">
+        <v>98</v>
+      </c>
+      <c r="AD27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>108.3</v>
+      </c>
+      <c r="B28">
+        <v>110.8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28">
+        <v>15.4</v>
+      </c>
+      <c r="I28">
+        <v>222.4</v>
+      </c>
+      <c r="M28">
+        <v>16.2</v>
+      </c>
+      <c r="N28">
+        <v>22.7</v>
+      </c>
+      <c r="O28">
+        <v>26.7</v>
+      </c>
+      <c r="P28">
+        <v>50.8</v>
+      </c>
+      <c r="Q28">
+        <v>12.9</v>
+      </c>
+      <c r="R28">
+        <v>34.4</v>
+      </c>
+      <c r="S28">
+        <v>15.6</v>
+      </c>
+      <c r="T28">
+        <v>20.2</v>
+      </c>
+      <c r="U28">
+        <v>28.7</v>
+      </c>
+      <c r="V28">
+        <v>54.1</v>
+      </c>
+      <c r="W28">
+        <v>12.6</v>
+      </c>
+      <c r="X28">
+        <v>31.6</v>
+      </c>
+      <c r="Y28">
+        <v>203</v>
+      </c>
+      <c r="Z28">
+        <v>159</v>
+      </c>
+      <c r="AA28">
+        <v>105</v>
+      </c>
+      <c r="AB28">
+        <v>84</v>
+      </c>
+      <c r="AC28">
+        <v>98</v>
+      </c>
+      <c r="AD28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>111.5</v>
+      </c>
+      <c r="B29">
+        <v>114.2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29">
+        <v>17.5</v>
+      </c>
+      <c r="I29">
+        <v>225</v>
+      </c>
+      <c r="M29">
+        <v>21.9</v>
+      </c>
+      <c r="N29">
+        <v>24.5</v>
+      </c>
+      <c r="O29">
+        <v>17.8</v>
+      </c>
+      <c r="P29">
+        <v>29.5</v>
+      </c>
+      <c r="Q29">
+        <v>18</v>
+      </c>
+      <c r="R29">
+        <v>55.8</v>
+      </c>
+      <c r="S29">
+        <v>19.3</v>
+      </c>
+      <c r="T29">
+        <v>25.8</v>
+      </c>
+      <c r="U29">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="V29">
+        <v>58.3</v>
+      </c>
+      <c r="W29">
+        <v>10.1</v>
+      </c>
+      <c r="X29">
+        <v>30.8</v>
+      </c>
+      <c r="Y29">
+        <v>203</v>
+      </c>
+      <c r="Z29">
+        <v>159</v>
+      </c>
+      <c r="AA29">
+        <v>105</v>
+      </c>
+      <c r="AB29">
+        <v>84</v>
+      </c>
+      <c r="AC29">
+        <v>98</v>
+      </c>
+      <c r="AD29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>112.7</v>
+      </c>
+      <c r="B30">
+        <v>103.8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I30">
+        <v>220.2</v>
+      </c>
+      <c r="M30">
+        <v>18.7</v>
+      </c>
+      <c r="N30">
+        <v>22.4</v>
+      </c>
+      <c r="O30">
+        <v>25.4</v>
+      </c>
+      <c r="P30">
+        <v>45.4</v>
+      </c>
+      <c r="Q30">
+        <v>14.4</v>
+      </c>
+      <c r="R30">
+        <v>36.4</v>
+      </c>
+      <c r="S30">
+        <v>16.7</v>
+      </c>
+      <c r="T30">
+        <v>20</v>
+      </c>
+      <c r="U30">
+        <v>25.7</v>
+      </c>
+      <c r="V30">
+        <v>53.9</v>
+      </c>
+      <c r="W30">
+        <v>11.9</v>
+      </c>
+      <c r="X30">
+        <v>34.1</v>
+      </c>
+      <c r="Y30">
+        <v>203</v>
+      </c>
+      <c r="Z30">
+        <v>159</v>
+      </c>
+      <c r="AA30">
+        <v>105</v>
+      </c>
+      <c r="AB30">
+        <v>84</v>
+      </c>
+      <c r="AC30">
+        <v>98</v>
+      </c>
+      <c r="AD30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>107.3</v>
+      </c>
+      <c r="B31">
+        <v>103.1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31">
+        <v>22.8</v>
+      </c>
+      <c r="I31">
+        <v>215.8</v>
+      </c>
+      <c r="M31">
+        <v>21.3</v>
+      </c>
+      <c r="N31">
+        <v>26.3</v>
+      </c>
+      <c r="O31">
+        <v>23.8</v>
+      </c>
+      <c r="P31">
+        <v>46.3</v>
+      </c>
+      <c r="Q31">
+        <v>12.8</v>
+      </c>
+      <c r="R31">
+        <v>38.5</v>
+      </c>
+      <c r="S31">
+        <v>15.9</v>
+      </c>
+      <c r="T31">
+        <v>22.5</v>
+      </c>
+      <c r="U31">
+        <v>23.8</v>
+      </c>
+      <c r="V31">
+        <v>47.3</v>
+      </c>
+      <c r="W31">
+        <v>13.2</v>
+      </c>
+      <c r="X31">
+        <v>39.5</v>
+      </c>
+      <c r="Y31">
+        <v>203</v>
+      </c>
+      <c r="Z31">
+        <v>159</v>
+      </c>
+      <c r="AA31">
+        <v>105</v>
+      </c>
+      <c r="AB31">
+        <v>84</v>
+      </c>
+      <c r="AC31">
+        <v>98</v>
+      </c>
+      <c r="AD31">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AD31" xr:uid="{1B590E11-52DC-4EBE-B849-4CF2AD76DA41}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="LAC"/>
+        <filter val="MIA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BballMVC/_Documentation/Analysis.xlsx
+++ b/BballMVC/_Documentation/Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678FA59D-A4C9-43F7-A29F-9CA5AF81EBC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A313435E-5393-4FCE-B73E-D2FC92AC7363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29880" yWindow="1620" windowWidth="25425" windowHeight="11835" activeTab="4" xr2:uid="{70556F97-A39D-40DB-BC31-3C8B0522173B}"/>
+    <workbookView xWindow="30510" yWindow="1065" windowWidth="25965" windowHeight="14865" activeTab="4" xr2:uid="{70556F97-A39D-40DB-BC31-3C8B0522173B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weeklys" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="scrTeamStats" sheetId="5" r:id="rId5"/>
+    <sheet name="Stratergy Notes" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">scrTeamStats!$A$1:$AD$31</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -709,6 +710,51 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Desciption</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Get TMR w LineDiffs &gt; 15</t>
+  </si>
+  <si>
+    <t>Calc &amp; Display Pt%</t>
+  </si>
+  <si>
+    <t>Pt% - % of 1,2,3 Pters for team</t>
+  </si>
+  <si>
+    <t>See how our 123PT calced nums differ from their PCTs</t>
+  </si>
+  <si>
+    <t>Prep</t>
+  </si>
+  <si>
+    <t>Get Adj for this season</t>
+  </si>
+  <si>
+    <t>Get prev season ADJs</t>
+  </si>
+  <si>
+    <t>Create Env</t>
+  </si>
+  <si>
+    <t>Run this season</t>
+  </si>
+  <si>
+    <t>Scored &amp; Allowed - write stats to TmStr Table</t>
+  </si>
+  <si>
+    <t>scrTeamStats</t>
+  </si>
 </sst>
 </file>
 
@@ -32618,7 +32664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35007,4 +35053,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8994D-9A37-4F45-9B49-A34A93DB7503}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BballMVC/_Documentation/Analysis.xlsx
+++ b/BballMVC/_Documentation/Analysis.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A313435E-5393-4FCE-B73E-D2FC92AC7363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467AE7F8-D9BF-46C8-B654-11C6C39A92C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="1065" windowWidth="25965" windowHeight="14865" activeTab="4" xr2:uid="{70556F97-A39D-40DB-BC31-3C8B0522173B}"/>
+    <workbookView xWindow="34800" yWindow="1080" windowWidth="21600" windowHeight="11835" activeTab="6" xr2:uid="{70556F97-A39D-40DB-BC31-3C8B0522173B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weeklys" sheetId="1" r:id="rId1"/>
     <sheet name="TM Results" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="scrTeamStats" sheetId="5" r:id="rId5"/>
-    <sheet name="Stratergy Notes" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Adj Counts" sheetId="9" r:id="rId6"/>
+    <sheet name="UnAdn" sheetId="10" r:id="rId7"/>
+    <sheet name="scrTeamStats" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
+    <sheet name="Stratergy Notes" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">scrTeamStats!$A$1:$AD$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Adj Counts'!$A$1:$E$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">scrTeamStats!$A$1:$AD$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="255">
   <si>
     <t>Date</t>
   </si>
@@ -755,6 +760,78 @@
   <si>
     <t>scrTeamStats</t>
   </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>FERRARI616\BBALL</t>
+  </si>
+  <si>
+    <t>Yr</t>
+  </si>
+  <si>
+    <t>Adjs</t>
+  </si>
+  <si>
+    <t>FERRARI616\SQLEXPRESS2012</t>
+  </si>
+  <si>
+    <t>WNBA</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>xAdjustments</t>
+  </si>
+  <si>
+    <t>FERRARI616\bBALL</t>
+  </si>
+  <si>
+    <t>FERRARI616\bBALL (SqlExpresss)</t>
+  </si>
+  <si>
+    <t>FERRARI616\BBALLPROD</t>
+  </si>
+  <si>
+    <t>FERRARI616\BBALLHISTORY</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>AdjustmentsALL</t>
+  </si>
+  <si>
+    <t>Adjustments_NEW</t>
+  </si>
+  <si>
+    <t>Adjustments_OLD</t>
+  </si>
+  <si>
+    <t>Adjustments_BAK</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Shots</t>
+  </si>
+  <si>
+    <t>OpAdj</t>
+  </si>
+  <si>
+    <t>OpPct</t>
+  </si>
+  <si>
+    <t>LgAvg</t>
+  </si>
+  <si>
+    <t>OpAdj%</t>
+  </si>
+  <si>
+    <t>- 25.61 /</t>
+  </si>
 </sst>
 </file>
 
@@ -767,7 +844,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00_);[Red]0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +873,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -928,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -990,6 +1073,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,6 +1092,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581276</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C3F1F-73F1-437E-9A94-C2ADBDC10060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="952500"/>
+          <a:ext cx="1800476" cy="590632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2156,6 +2291,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8994D-9A37-4F45-9B49-A34A93DB7503}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66D3364-6B72-4A16-8EA7-BE620858BF8E}">
   <sheetPr codeName="Sheet2"/>
@@ -32658,11 +32899,1475 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E45413A-2DFE-46B0-98F6-239A34264025}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB0064-19FB-4FAB-B929-74361D69CBF7}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2">
+        <v>2008</v>
+      </c>
+      <c r="D2">
+        <v>540</v>
+      </c>
+      <c r="E2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3">
+        <v>2008</v>
+      </c>
+      <c r="D3">
+        <v>540</v>
+      </c>
+      <c r="E3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4">
+        <v>2009</v>
+      </c>
+      <c r="D4">
+        <v>2658</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5">
+        <v>2009</v>
+      </c>
+      <c r="D5">
+        <v>2657</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6">
+        <v>2010</v>
+      </c>
+      <c r="D6">
+        <v>4215</v>
+      </c>
+      <c r="E6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>2010</v>
+      </c>
+      <c r="D7">
+        <v>4214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>2011</v>
+      </c>
+      <c r="D8">
+        <v>2237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9">
+        <v>2011</v>
+      </c>
+      <c r="D9">
+        <v>2237</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10">
+        <v>2011</v>
+      </c>
+      <c r="D10">
+        <v>261</v>
+      </c>
+      <c r="E10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11">
+        <v>2012</v>
+      </c>
+      <c r="D11">
+        <v>5314</v>
+      </c>
+      <c r="E11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12">
+        <v>2012</v>
+      </c>
+      <c r="D12">
+        <v>4043</v>
+      </c>
+      <c r="E12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13">
+        <v>2012</v>
+      </c>
+      <c r="D13">
+        <v>4043</v>
+      </c>
+      <c r="E13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14">
+        <v>2013</v>
+      </c>
+      <c r="D14">
+        <v>5100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15">
+        <v>2013</v>
+      </c>
+      <c r="D15">
+        <v>3746</v>
+      </c>
+      <c r="E15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16">
+        <v>2013</v>
+      </c>
+      <c r="D16">
+        <v>3746</v>
+      </c>
+      <c r="E16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17">
+        <v>2014</v>
+      </c>
+      <c r="D17">
+        <v>6264</v>
+      </c>
+      <c r="E17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18">
+        <v>2014</v>
+      </c>
+      <c r="D18">
+        <v>5230</v>
+      </c>
+      <c r="E18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19">
+        <v>2014</v>
+      </c>
+      <c r="D19">
+        <v>5230</v>
+      </c>
+      <c r="E19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20">
+        <v>2015</v>
+      </c>
+      <c r="D20">
+        <v>5588</v>
+      </c>
+      <c r="E20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21">
+        <v>2015</v>
+      </c>
+      <c r="D21">
+        <v>5143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22">
+        <v>2015</v>
+      </c>
+      <c r="D22">
+        <v>5143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23">
+        <v>2015</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24">
+        <v>2016</v>
+      </c>
+      <c r="D24">
+        <v>5663</v>
+      </c>
+      <c r="E24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25">
+        <v>2016</v>
+      </c>
+      <c r="D25">
+        <v>4915</v>
+      </c>
+      <c r="E25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26">
+        <v>2016</v>
+      </c>
+      <c r="D26">
+        <v>2243</v>
+      </c>
+      <c r="E26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27">
+        <v>2016</v>
+      </c>
+      <c r="D27">
+        <v>1385</v>
+      </c>
+      <c r="E27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28">
+        <v>2016</v>
+      </c>
+      <c r="D28">
+        <v>997</v>
+      </c>
+      <c r="E28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29">
+        <v>2017</v>
+      </c>
+      <c r="D29">
+        <v>5474</v>
+      </c>
+      <c r="E29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30">
+        <v>2017</v>
+      </c>
+      <c r="D30">
+        <v>4969</v>
+      </c>
+      <c r="E30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31">
+        <v>2017</v>
+      </c>
+      <c r="D31">
+        <v>3407</v>
+      </c>
+      <c r="E31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32">
+        <v>2018</v>
+      </c>
+      <c r="D32">
+        <v>5774</v>
+      </c>
+      <c r="E32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33">
+        <v>2018</v>
+      </c>
+      <c r="D33">
+        <v>3573</v>
+      </c>
+      <c r="E33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34">
+        <v>2019</v>
+      </c>
+      <c r="D34">
+        <v>4233</v>
+      </c>
+      <c r="E34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35">
+        <v>2019</v>
+      </c>
+      <c r="D35">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36">
+        <v>2019</v>
+      </c>
+      <c r="D36">
+        <v>1474</v>
+      </c>
+      <c r="E36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37">
+        <v>2019</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38">
+        <v>2020</v>
+      </c>
+      <c r="D38">
+        <v>1897</v>
+      </c>
+      <c r="E38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39">
+        <v>2020</v>
+      </c>
+      <c r="D39">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40">
+        <v>2020</v>
+      </c>
+      <c r="D40">
+        <v>1823</v>
+      </c>
+      <c r="E40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41">
+        <v>2020</v>
+      </c>
+      <c r="D41">
+        <v>261</v>
+      </c>
+      <c r="E41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42">
+        <v>2021</v>
+      </c>
+      <c r="D42">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43">
+        <v>2021</v>
+      </c>
+      <c r="D43">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44">
+        <v>2021</v>
+      </c>
+      <c r="D44">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45">
+        <v>2009</v>
+      </c>
+      <c r="D45">
+        <v>513</v>
+      </c>
+      <c r="E45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46">
+        <v>2009</v>
+      </c>
+      <c r="D46">
+        <v>496</v>
+      </c>
+      <c r="E46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47">
+        <v>2009</v>
+      </c>
+      <c r="D47">
+        <v>496</v>
+      </c>
+      <c r="E47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48">
+        <v>2010</v>
+      </c>
+      <c r="D48">
+        <v>1051</v>
+      </c>
+      <c r="E48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49">
+        <v>2010</v>
+      </c>
+      <c r="D49">
+        <v>605</v>
+      </c>
+      <c r="E49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50">
+        <v>2010</v>
+      </c>
+      <c r="D50">
+        <v>605</v>
+      </c>
+      <c r="E50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51">
+        <v>2011</v>
+      </c>
+      <c r="D51">
+        <v>820</v>
+      </c>
+      <c r="E51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52">
+        <v>2011</v>
+      </c>
+      <c r="D52">
+        <v>820</v>
+      </c>
+      <c r="E52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53">
+        <v>2011</v>
+      </c>
+      <c r="D53">
+        <v>794</v>
+      </c>
+      <c r="E53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54">
+        <v>2012</v>
+      </c>
+      <c r="D54">
+        <v>507</v>
+      </c>
+      <c r="E54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55">
+        <v>2012</v>
+      </c>
+      <c r="D55">
+        <v>456</v>
+      </c>
+      <c r="E55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56">
+        <v>2012</v>
+      </c>
+      <c r="D56">
+        <v>456</v>
+      </c>
+      <c r="E56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57">
+        <v>2013</v>
+      </c>
+      <c r="D57">
+        <v>575</v>
+      </c>
+      <c r="E57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58">
+        <v>2013</v>
+      </c>
+      <c r="D58">
+        <v>488</v>
+      </c>
+      <c r="E58" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59">
+        <v>2013</v>
+      </c>
+      <c r="D59">
+        <v>488</v>
+      </c>
+      <c r="E59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60">
+        <v>2014</v>
+      </c>
+      <c r="D60">
+        <v>906</v>
+      </c>
+      <c r="E60" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61">
+        <v>2014</v>
+      </c>
+      <c r="D61">
+        <v>872</v>
+      </c>
+      <c r="E61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62">
+        <v>2014</v>
+      </c>
+      <c r="D62">
+        <v>872</v>
+      </c>
+      <c r="E62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63">
+        <v>2015</v>
+      </c>
+      <c r="D63">
+        <v>850</v>
+      </c>
+      <c r="E63" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64">
+        <v>2015</v>
+      </c>
+      <c r="D64">
+        <v>831</v>
+      </c>
+      <c r="E64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65">
+        <v>2015</v>
+      </c>
+      <c r="D65">
+        <v>829</v>
+      </c>
+      <c r="E65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66">
+        <v>2016</v>
+      </c>
+      <c r="D66">
+        <v>884</v>
+      </c>
+      <c r="E66" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67">
+        <v>2016</v>
+      </c>
+      <c r="D67">
+        <v>832</v>
+      </c>
+      <c r="E67" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68">
+        <v>2016</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69">
+        <v>2016</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70">
+        <v>2017</v>
+      </c>
+      <c r="D70">
+        <v>954</v>
+      </c>
+      <c r="E70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71">
+        <v>2017</v>
+      </c>
+      <c r="D71">
+        <v>874</v>
+      </c>
+      <c r="E71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72">
+        <v>2017</v>
+      </c>
+      <c r="D72">
+        <v>874</v>
+      </c>
+      <c r="E72" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73">
+        <v>2018</v>
+      </c>
+      <c r="D73">
+        <v>936</v>
+      </c>
+      <c r="E73" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74">
+        <v>2018</v>
+      </c>
+      <c r="D74">
+        <v>870</v>
+      </c>
+      <c r="E74" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75">
+        <v>2019</v>
+      </c>
+      <c r="D75">
+        <v>403</v>
+      </c>
+      <c r="E75" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76">
+        <v>2019</v>
+      </c>
+      <c r="D76">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77">
+        <v>2019</v>
+      </c>
+      <c r="D77">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78">
+        <v>2020</v>
+      </c>
+      <c r="D78">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E78" xr:uid="{01F36D85-98B9-4A17-8FD5-E5BE992C66B0}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FERRARI616\SQLEXPRESS2012"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="NBA"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Adjustments"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E78">
+    <sortCondition ref="B2:B78"/>
+    <sortCondition ref="C2:C78"/>
+    <sortCondition descending="1" ref="D2:D78"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5CB16F-31E6-4F61-8C27-E030123AC780}">
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="36"/>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="36">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3">
+        <v>25.61</v>
+      </c>
+      <c r="E3">
+        <v>20.45</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3-E3</f>
+        <v>5.16</v>
+      </c>
+      <c r="G3" s="2">
+        <f>H3/I3</f>
+        <v>1.2832369942196531</v>
+      </c>
+      <c r="H3">
+        <v>22.2</v>
+      </c>
+      <c r="I3">
+        <v>17.3</v>
+      </c>
+      <c r="J3" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>E3* (G4-1)</f>
+        <v>5.7921965317919009</v>
+      </c>
+      <c r="G4">
+        <f>1+(H3/I3)-1</f>
+        <v>1.2832369942196529</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>F3/E3</f>
+        <v>0.25232273838630809</v>
+      </c>
+      <c r="G5">
+        <f>G4*E3</f>
+        <v>26.242196531791901</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f xml:space="preserve"> ( 1 + (( (H3 / I3) - 1 ) * J3) )</f>
+        <v>1.2832369942196531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971C28BF-123D-4486-98C4-A0150FC2C09A}">
   <sheetPr codeName="Sheet5" filterMode="1"/>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
@@ -35055,108 +36760,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8994D-9A37-4F45-9B49-A34A93DB7503}">
-  <dimension ref="A1:D8"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA166A-B952-4400-95C7-BC9B81523308}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
-    <sortCondition ref="A2:A7"/>
-  </sortState>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BballMVC/_Documentation/Analysis.xlsx
+++ b/BballMVC/_Documentation/Analysis.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467AE7F8-D9BF-46C8-B654-11C6C39A92C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0259F2-BEA4-45E0-8946-B8D59CA6327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34800" yWindow="1080" windowWidth="21600" windowHeight="11835" activeTab="6" xr2:uid="{70556F97-A39D-40DB-BC31-3C8B0522173B}"/>
+    <workbookView xWindow="34335" yWindow="2835" windowWidth="21600" windowHeight="11835" firstSheet="3" activeTab="5" xr2:uid="{70556F97-A39D-40DB-BC31-3C8B0522173B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weeklys" sheetId="1" r:id="rId1"/>
     <sheet name="TM Results" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
-    <sheet name="Adj Counts" sheetId="9" r:id="rId6"/>
-    <sheet name="UnAdn" sheetId="10" r:id="rId7"/>
-    <sheet name="scrTeamStats" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
-    <sheet name="Stratergy Notes" sheetId="6" r:id="rId10"/>
+    <sheet name="Envirments" sheetId="7" r:id="rId5"/>
+    <sheet name="CalcTM Breakdown" sheetId="12" r:id="rId6"/>
+    <sheet name="Adj Counts" sheetId="9" r:id="rId7"/>
+    <sheet name="UnAdn" sheetId="10" r:id="rId8"/>
+    <sheet name="UTA-LAC" sheetId="11" r:id="rId9"/>
+    <sheet name="scrTeamStats" sheetId="5" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId11"/>
+    <sheet name="Stratergy Notes" sheetId="6" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Adj Counts'!$A$1:$E$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">scrTeamStats!$A$1:$AD$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Adj Counts'!$A$1:$E$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">scrTeamStats!$A$1:$AD$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="289">
   <si>
     <t>Date</t>
   </si>
@@ -832,6 +834,150 @@
   <si>
     <t>- 25.61 /</t>
   </si>
+  <si>
+    <t>Lg Avg</t>
+  </si>
+  <si>
+    <t>Lg Pts</t>
+  </si>
+  <si>
+    <t>Tm Pts</t>
+  </si>
+  <si>
+    <t>Tm Avg</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>SQLEXPRESS - test</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>StartGameDate</t>
+  </si>
+  <si>
+    <t>MaxGameDate</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>MaxDate</t>
+  </si>
+  <si>
+    <t>Creation</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Entry </t>
+  </si>
+  <si>
+    <t>BoxScores</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.net </t>
+  </si>
+  <si>
+    <t>BoxScoresLast5Min</t>
+  </si>
+  <si>
+    <t>DailySummary</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>TeamStatsAverages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.uspCalcTMs </t>
+  </si>
+  <si>
+    <t>TeamStrength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uspTeamStrength </t>
+  </si>
+  <si>
+    <t>TodaysMatchups</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uspCalcTMs </t>
+  </si>
+  <si>
+    <t>TodaysMatchupsResults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uspInsertMatchupResults </t>
+  </si>
+  <si>
+    <t>uspCalcTodaysMatchups</t>
+  </si>
+  <si>
+    <t>@UserName</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar(10), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@LeagueName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> varchar(8), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@GameDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Date, @Display bit = 0 </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -844,7 +990,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00_);[Red]0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,8 +1026,16 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,6 +1051,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1076,6 +1236,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,55 +1259,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581276</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19132</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C3F1F-73F1-437E-9A94-C2ADBDC10060}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="952500"/>
-          <a:ext cx="1800476" cy="590632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2212,19 +2330,19 @@
         <v>222.52727272727273</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" ref="E13:H13" si="0">AVERAGE(E2:E12)</f>
+        <f>AVERAGE(E2:E12)</f>
         <v>224.91818181818186</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F2:F12)</f>
         <v>223.57272727272724</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G2:G12)</f>
         <v>12.018181818181819</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H2:H12)</f>
         <v>-2.6909090909090909</v>
       </c>
       <c r="J13" s="13">
@@ -2236,27 +2354,27 @@
         <v>50</v>
       </c>
       <c r="M13" s="13">
-        <f t="shared" ref="M13:N13" si="1">SUM(M2:M12)</f>
+        <f>SUM(M2:M12)</f>
         <v>168</v>
       </c>
       <c r="N13" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(N2:N12)</f>
         <v>118</v>
       </c>
       <c r="P13" s="13">
-        <f t="shared" ref="P13:Q13" si="2">SUM(P2:P12)</f>
+        <f>SUM(P2:P12)</f>
         <v>90</v>
       </c>
       <c r="Q13" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM(Q2:Q12)</f>
         <v>68</v>
       </c>
       <c r="S13" s="13">
-        <f t="shared" ref="S13:T13" si="3">SUM(S2:S12)</f>
+        <f>SUM(S2:S12)</f>
         <v>78</v>
       </c>
       <c r="T13" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(T2:T12)</f>
         <v>50</v>
       </c>
     </row>
@@ -2270,19 +2388,19 @@
         <v>0.58741258741258739</v>
       </c>
       <c r="P14" s="13">
-        <f t="shared" ref="P14" si="4">P13+Q13</f>
+        <f>P13+Q13</f>
         <v>158</v>
       </c>
       <c r="Q14" s="14">
-        <f t="shared" ref="Q14" si="5">P13/ (P13+Q13)</f>
+        <f>P13/ (P13+Q13)</f>
         <v>0.569620253164557</v>
       </c>
       <c r="S14" s="13">
-        <f t="shared" ref="S14" si="6">S13+T13</f>
+        <f>S13+T13</f>
         <v>128</v>
       </c>
       <c r="T14" s="14">
-        <f t="shared" ref="T14" si="7">S13/ (S13+T13)</f>
+        <f>S13/ (S13+T13)</f>
         <v>0.609375</v>
       </c>
     </row>
@@ -2292,6 +2410,2416 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971C28BF-123D-4486-98C4-A0150FC2C09A}">
+  <sheetPr codeName="Sheet5" filterMode="1"/>
+  <dimension ref="A1:AD31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="26" t="str">
+        <f>A1</f>
+        <v>Pts
+Scored</v>
+      </c>
+      <c r="G1" s="26" t="str">
+        <f>B1</f>
+        <v>Pts
+Allowed</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>103.2</v>
+      </c>
+      <c r="B2">
+        <v>101.8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2">
+        <v>4.8</v>
+      </c>
+      <c r="I2">
+        <v>202.4</v>
+      </c>
+      <c r="M2">
+        <v>20.9</v>
+      </c>
+      <c r="N2">
+        <v>26.2</v>
+      </c>
+      <c r="O2">
+        <v>25.1</v>
+      </c>
+      <c r="P2">
+        <v>54.8</v>
+      </c>
+      <c r="Q2">
+        <v>10.7</v>
+      </c>
+      <c r="R2">
+        <v>33</v>
+      </c>
+      <c r="S2">
+        <v>19.2</v>
+      </c>
+      <c r="T2">
+        <v>25.8</v>
+      </c>
+      <c r="U2">
+        <v>26.3</v>
+      </c>
+      <c r="V2">
+        <v>50.4</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>34.6</v>
+      </c>
+      <c r="Y2">
+        <v>203</v>
+      </c>
+      <c r="Z2">
+        <v>159</v>
+      </c>
+      <c r="AA2">
+        <v>105</v>
+      </c>
+      <c r="AB2">
+        <v>84</v>
+      </c>
+      <c r="AC2">
+        <v>98</v>
+      </c>
+      <c r="AD2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101.3</v>
+      </c>
+      <c r="B3">
+        <v>109.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I3">
+        <v>210.3</v>
+      </c>
+      <c r="M3">
+        <v>15.3</v>
+      </c>
+      <c r="N3">
+        <v>21.8</v>
+      </c>
+      <c r="O3">
+        <v>22.9</v>
+      </c>
+      <c r="P3">
+        <v>46.8</v>
+      </c>
+      <c r="Q3">
+        <v>13.4</v>
+      </c>
+      <c r="R3">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="S3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="T3">
+        <v>25</v>
+      </c>
+      <c r="U3">
+        <v>30.5</v>
+      </c>
+      <c r="V3">
+        <v>55.3</v>
+      </c>
+      <c r="W3">
+        <v>9.6</v>
+      </c>
+      <c r="X3">
+        <v>27.5</v>
+      </c>
+      <c r="Y3">
+        <v>203</v>
+      </c>
+      <c r="Z3">
+        <v>159</v>
+      </c>
+      <c r="AA3">
+        <v>105</v>
+      </c>
+      <c r="AB3">
+        <v>84</v>
+      </c>
+      <c r="AC3">
+        <v>98</v>
+      </c>
+      <c r="AD3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>118.2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I4">
+        <v>236.7</v>
+      </c>
+      <c r="M4">
+        <v>18.2</v>
+      </c>
+      <c r="N4">
+        <v>26.2</v>
+      </c>
+      <c r="O4">
+        <v>29.3</v>
+      </c>
+      <c r="P4">
+        <v>53.5</v>
+      </c>
+      <c r="Q4">
+        <v>13.4</v>
+      </c>
+      <c r="R4">
+        <v>38.5</v>
+      </c>
+      <c r="S4">
+        <v>21.6</v>
+      </c>
+      <c r="T4">
+        <v>26.7</v>
+      </c>
+      <c r="U4">
+        <v>25.5</v>
+      </c>
+      <c r="V4">
+        <v>50.8</v>
+      </c>
+      <c r="W4">
+        <v>15.2</v>
+      </c>
+      <c r="X4">
+        <v>44.3</v>
+      </c>
+      <c r="Y4">
+        <v>203</v>
+      </c>
+      <c r="Z4">
+        <v>159</v>
+      </c>
+      <c r="AA4">
+        <v>105</v>
+      </c>
+      <c r="AB4">
+        <v>84</v>
+      </c>
+      <c r="AC4">
+        <v>98</v>
+      </c>
+      <c r="AD4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>117.8</v>
+      </c>
+      <c r="B5">
+        <v>112.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>234.9</v>
+      </c>
+      <c r="M5">
+        <v>13.9</v>
+      </c>
+      <c r="N5">
+        <v>16.8</v>
+      </c>
+      <c r="O5">
+        <v>32.9</v>
+      </c>
+      <c r="P5">
+        <v>58</v>
+      </c>
+      <c r="Q5">
+        <v>12.7</v>
+      </c>
+      <c r="R5">
+        <v>31</v>
+      </c>
+      <c r="S5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="T5">
+        <v>22.3</v>
+      </c>
+      <c r="U5">
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <v>58.3</v>
+      </c>
+      <c r="W5">
+        <v>11.7</v>
+      </c>
+      <c r="X5">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="Y5">
+        <v>203</v>
+      </c>
+      <c r="Z5">
+        <v>159</v>
+      </c>
+      <c r="AA5">
+        <v>105</v>
+      </c>
+      <c r="AB5">
+        <v>84</v>
+      </c>
+      <c r="AC5">
+        <v>98</v>
+      </c>
+      <c r="AD5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>109.7</v>
+      </c>
+      <c r="B6">
+        <v>116.4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6">
+        <v>5.4</v>
+      </c>
+      <c r="I6">
+        <v>221.8</v>
+      </c>
+      <c r="M6">
+        <v>23.8</v>
+      </c>
+      <c r="N6">
+        <v>28.1</v>
+      </c>
+      <c r="O6">
+        <v>27.8</v>
+      </c>
+      <c r="P6">
+        <v>54.3</v>
+      </c>
+      <c r="Q6">
+        <v>10.1</v>
+      </c>
+      <c r="R6">
+        <v>34.5</v>
+      </c>
+      <c r="S6">
+        <v>13.8</v>
+      </c>
+      <c r="T6">
+        <v>17.5</v>
+      </c>
+      <c r="U6">
+        <v>30.3</v>
+      </c>
+      <c r="V6">
+        <v>56.8</v>
+      </c>
+      <c r="W6">
+        <v>14</v>
+      </c>
+      <c r="X6">
+        <v>34.5</v>
+      </c>
+      <c r="Y6">
+        <v>203</v>
+      </c>
+      <c r="Z6">
+        <v>159</v>
+      </c>
+      <c r="AA6">
+        <v>105</v>
+      </c>
+      <c r="AB6">
+        <v>84</v>
+      </c>
+      <c r="AC6">
+        <v>98</v>
+      </c>
+      <c r="AD6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>117.4</v>
+      </c>
+      <c r="B7">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7">
+        <v>5.8</v>
+      </c>
+      <c r="I7">
+        <v>224.2</v>
+      </c>
+      <c r="M7">
+        <v>20.9</v>
+      </c>
+      <c r="N7">
+        <v>26.2</v>
+      </c>
+      <c r="O7">
+        <v>27.4</v>
+      </c>
+      <c r="P7">
+        <v>51.3</v>
+      </c>
+      <c r="Q7">
+        <v>13.9</v>
+      </c>
+      <c r="R7">
+        <v>35.1</v>
+      </c>
+      <c r="S7">
+        <v>17.2</v>
+      </c>
+      <c r="T7">
+        <v>21.1</v>
+      </c>
+      <c r="U7">
+        <v>27.3</v>
+      </c>
+      <c r="V7">
+        <v>55.7</v>
+      </c>
+      <c r="W7">
+        <v>12.4</v>
+      </c>
+      <c r="X7">
+        <v>35.6</v>
+      </c>
+      <c r="Y7">
+        <v>203</v>
+      </c>
+      <c r="Z7">
+        <v>159</v>
+      </c>
+      <c r="AA7">
+        <v>105</v>
+      </c>
+      <c r="AB7">
+        <v>84</v>
+      </c>
+      <c r="AC7">
+        <v>98</v>
+      </c>
+      <c r="AD7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>101.8</v>
+      </c>
+      <c r="B8">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8">
+        <v>6.2</v>
+      </c>
+      <c r="I8">
+        <v>211.7</v>
+      </c>
+      <c r="M8">
+        <v>14.3</v>
+      </c>
+      <c r="N8">
+        <v>21.5</v>
+      </c>
+      <c r="O8">
+        <v>22.6</v>
+      </c>
+      <c r="P8">
+        <v>51.9</v>
+      </c>
+      <c r="Q8">
+        <v>14.1</v>
+      </c>
+      <c r="R8">
+        <v>35.1</v>
+      </c>
+      <c r="S8">
+        <v>12.9</v>
+      </c>
+      <c r="T8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="U8">
+        <v>28.8</v>
+      </c>
+      <c r="V8">
+        <v>50.8</v>
+      </c>
+      <c r="W8">
+        <v>13.5</v>
+      </c>
+      <c r="X8">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>203</v>
+      </c>
+      <c r="Z8">
+        <v>159</v>
+      </c>
+      <c r="AA8">
+        <v>105</v>
+      </c>
+      <c r="AB8">
+        <v>84</v>
+      </c>
+      <c r="AC8">
+        <v>98</v>
+      </c>
+      <c r="AD8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>114.5</v>
+      </c>
+      <c r="B9">
+        <v>106.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9">
+        <v>7.6</v>
+      </c>
+      <c r="I9">
+        <v>226.9</v>
+      </c>
+      <c r="M9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N9">
+        <v>24.8</v>
+      </c>
+      <c r="O9">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="P9">
+        <v>57.5</v>
+      </c>
+      <c r="Q9">
+        <v>9.6</v>
+      </c>
+      <c r="R9">
+        <v>30.8</v>
+      </c>
+      <c r="S9">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T9">
+        <v>23.5</v>
+      </c>
+      <c r="U9">
+        <v>24.6</v>
+      </c>
+      <c r="V9">
+        <v>54.5</v>
+      </c>
+      <c r="W9">
+        <v>13.4</v>
+      </c>
+      <c r="X9">
+        <v>37.5</v>
+      </c>
+      <c r="Y9">
+        <v>203</v>
+      </c>
+      <c r="Z9">
+        <v>159</v>
+      </c>
+      <c r="AA9">
+        <v>105</v>
+      </c>
+      <c r="AB9">
+        <v>84</v>
+      </c>
+      <c r="AC9">
+        <v>98</v>
+      </c>
+      <c r="AD9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>115</v>
+      </c>
+      <c r="B10">
+        <v>122.9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10">
+        <v>7.8</v>
+      </c>
+      <c r="I10">
+        <v>229.9</v>
+      </c>
+      <c r="M10">
+        <v>16.5</v>
+      </c>
+      <c r="N10">
+        <v>21.8</v>
+      </c>
+      <c r="O10">
+        <v>32.9</v>
+      </c>
+      <c r="P10">
+        <v>56.6</v>
+      </c>
+      <c r="Q10">
+        <v>10.9</v>
+      </c>
+      <c r="R10">
+        <v>32.9</v>
+      </c>
+      <c r="S10">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="T10">
+        <v>25</v>
+      </c>
+      <c r="U10">
+        <v>25.3</v>
+      </c>
+      <c r="V10">
+        <v>47.3</v>
+      </c>
+      <c r="W10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="X10">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Y10">
+        <v>203</v>
+      </c>
+      <c r="Z10">
+        <v>159</v>
+      </c>
+      <c r="AA10">
+        <v>105</v>
+      </c>
+      <c r="AB10">
+        <v>84</v>
+      </c>
+      <c r="AC10">
+        <v>98</v>
+      </c>
+      <c r="AD10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>118.4</v>
+      </c>
+      <c r="B11">
+        <v>117.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I11">
+        <v>243.3</v>
+      </c>
+      <c r="M11">
+        <v>26.3</v>
+      </c>
+      <c r="N11">
+        <v>32.5</v>
+      </c>
+      <c r="O11">
+        <v>29.1</v>
+      </c>
+      <c r="P11">
+        <v>61</v>
+      </c>
+      <c r="Q11">
+        <v>11.3</v>
+      </c>
+      <c r="R11">
+        <v>25.8</v>
+      </c>
+      <c r="S11">
+        <v>16.8</v>
+      </c>
+      <c r="T11">
+        <v>20</v>
+      </c>
+      <c r="U11">
+        <v>32.4</v>
+      </c>
+      <c r="V11">
+        <v>59.5</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="X11">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Y11">
+        <v>203</v>
+      </c>
+      <c r="Z11">
+        <v>159</v>
+      </c>
+      <c r="AA11">
+        <v>105</v>
+      </c>
+      <c r="AB11">
+        <v>84</v>
+      </c>
+      <c r="AC11">
+        <v>98</v>
+      </c>
+      <c r="AD11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>118.9</v>
+      </c>
+      <c r="B12">
+        <v>117.7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I12">
+        <v>228.6</v>
+      </c>
+      <c r="M12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N12">
+        <v>26.8</v>
+      </c>
+      <c r="O12">
+        <v>29.5</v>
+      </c>
+      <c r="P12">
+        <v>53.8</v>
+      </c>
+      <c r="Q12">
+        <v>13.5</v>
+      </c>
+      <c r="R12">
+        <v>37</v>
+      </c>
+      <c r="S12">
+        <v>21</v>
+      </c>
+      <c r="T12">
+        <v>25.8</v>
+      </c>
+      <c r="U12">
+        <v>31.7</v>
+      </c>
+      <c r="V12">
+        <v>56.8</v>
+      </c>
+      <c r="W12">
+        <v>11.1</v>
+      </c>
+      <c r="X12">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="Y12">
+        <v>203</v>
+      </c>
+      <c r="Z12">
+        <v>159</v>
+      </c>
+      <c r="AA12">
+        <v>105</v>
+      </c>
+      <c r="AB12">
+        <v>84</v>
+      </c>
+      <c r="AC12">
+        <v>98</v>
+      </c>
+      <c r="AD12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>111.1</v>
+      </c>
+      <c r="B13">
+        <v>114.8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I13">
+        <v>219</v>
+      </c>
+      <c r="M13">
+        <v>20.8</v>
+      </c>
+      <c r="N13">
+        <v>28.3</v>
+      </c>
+      <c r="O13">
+        <v>27.9</v>
+      </c>
+      <c r="P13">
+        <v>53</v>
+      </c>
+      <c r="Q13">
+        <v>11.5</v>
+      </c>
+      <c r="R13">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="S13">
+        <v>19.5</v>
+      </c>
+      <c r="T13">
+        <v>24.8</v>
+      </c>
+      <c r="U13">
+        <v>27.4</v>
+      </c>
+      <c r="V13">
+        <v>48.8</v>
+      </c>
+      <c r="W13">
+        <v>13.5</v>
+      </c>
+      <c r="X13">
+        <v>32.5</v>
+      </c>
+      <c r="Y13">
+        <v>203</v>
+      </c>
+      <c r="Z13">
+        <v>159</v>
+      </c>
+      <c r="AA13">
+        <v>105</v>
+      </c>
+      <c r="AB13">
+        <v>84</v>
+      </c>
+      <c r="AC13">
+        <v>98</v>
+      </c>
+      <c r="AD13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>107.9</v>
+      </c>
+      <c r="B14">
+        <v>107.3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14">
+        <v>9.6</v>
+      </c>
+      <c r="I14">
+        <v>216.6</v>
+      </c>
+      <c r="M14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>33.6</v>
+      </c>
+      <c r="P14">
+        <v>58.3</v>
+      </c>
+      <c r="Q14">
+        <v>10.3</v>
+      </c>
+      <c r="R14">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="S14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="T14">
+        <v>27.8</v>
+      </c>
+      <c r="U14">
+        <v>29.9</v>
+      </c>
+      <c r="V14">
+        <v>49.3</v>
+      </c>
+      <c r="W14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="X14">
+        <v>29.5</v>
+      </c>
+      <c r="Y14">
+        <v>203</v>
+      </c>
+      <c r="Z14">
+        <v>159</v>
+      </c>
+      <c r="AA14">
+        <v>105</v>
+      </c>
+      <c r="AB14">
+        <v>84</v>
+      </c>
+      <c r="AC14">
+        <v>98</v>
+      </c>
+      <c r="AD14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>108.7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15">
+        <v>9.9</v>
+      </c>
+      <c r="F15" s="26">
+        <f>A15</f>
+        <v>114</v>
+      </c>
+      <c r="G15" s="26">
+        <f>B15</f>
+        <v>108.7</v>
+      </c>
+      <c r="H15">
+        <f>F15+G15</f>
+        <v>222.7</v>
+      </c>
+      <c r="I15">
+        <v>235.7</v>
+      </c>
+      <c r="J15" s="34">
+        <f>K15+L15</f>
+        <v>222.7</v>
+      </c>
+      <c r="K15" s="33">
+        <f>M15+O15*2+Q15*3</f>
+        <v>114</v>
+      </c>
+      <c r="L15" s="33">
+        <f>S15+U15*2+W15*3</f>
+        <v>108.69999999999999</v>
+      </c>
+      <c r="M15">
+        <v>24.1</v>
+      </c>
+      <c r="N15">
+        <v>28</v>
+      </c>
+      <c r="O15">
+        <v>22.3</v>
+      </c>
+      <c r="P15">
+        <v>40.5</v>
+      </c>
+      <c r="Q15">
+        <v>15.1</v>
+      </c>
+      <c r="R15">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="S15">
+        <v>22.9</v>
+      </c>
+      <c r="T15">
+        <v>27.5</v>
+      </c>
+      <c r="U15">
+        <v>21.6</v>
+      </c>
+      <c r="V15">
+        <v>43.3</v>
+      </c>
+      <c r="W15">
+        <v>14.2</v>
+      </c>
+      <c r="X15">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="Y15">
+        <v>203</v>
+      </c>
+      <c r="Z15">
+        <v>159</v>
+      </c>
+      <c r="AA15">
+        <v>105</v>
+      </c>
+      <c r="AB15">
+        <v>84</v>
+      </c>
+      <c r="AC15">
+        <v>98</v>
+      </c>
+      <c r="AD15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>108.9</v>
+      </c>
+      <c r="B16">
+        <v>114.7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I16">
+        <v>229.3</v>
+      </c>
+      <c r="M16">
+        <v>18.3</v>
+      </c>
+      <c r="N16">
+        <v>25.7</v>
+      </c>
+      <c r="O16">
+        <v>34.5</v>
+      </c>
+      <c r="P16">
+        <v>62.4</v>
+      </c>
+      <c r="Q16">
+        <v>7.2</v>
+      </c>
+      <c r="R16">
+        <v>21.1</v>
+      </c>
+      <c r="S16">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="T16">
+        <v>26.6</v>
+      </c>
+      <c r="U16">
+        <v>27.5</v>
+      </c>
+      <c r="V16">
+        <v>52.7</v>
+      </c>
+      <c r="W16">
+        <v>13.1</v>
+      </c>
+      <c r="X16">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Y16">
+        <v>203</v>
+      </c>
+      <c r="Z16">
+        <v>159</v>
+      </c>
+      <c r="AA16">
+        <v>105</v>
+      </c>
+      <c r="AB16">
+        <v>84</v>
+      </c>
+      <c r="AC16">
+        <v>98</v>
+      </c>
+      <c r="AD16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <v>125.1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17">
+        <v>10.3</v>
+      </c>
+      <c r="I17">
+        <v>244.9</v>
+      </c>
+      <c r="M17">
+        <v>14.7</v>
+      </c>
+      <c r="N17">
+        <v>19.5</v>
+      </c>
+      <c r="O17">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P17">
+        <v>54.3</v>
+      </c>
+      <c r="Q17">
+        <v>13.3</v>
+      </c>
+      <c r="R17">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="S17">
+        <v>18.7</v>
+      </c>
+      <c r="T17">
+        <v>26.3</v>
+      </c>
+      <c r="U17">
+        <v>30.1</v>
+      </c>
+      <c r="V17">
+        <v>54.5</v>
+      </c>
+      <c r="W17">
+        <v>15.4</v>
+      </c>
+      <c r="X17">
+        <v>34.5</v>
+      </c>
+      <c r="Y17">
+        <v>203</v>
+      </c>
+      <c r="Z17">
+        <v>159</v>
+      </c>
+      <c r="AA17">
+        <v>105</v>
+      </c>
+      <c r="AB17">
+        <v>84</v>
+      </c>
+      <c r="AC17">
+        <v>98</v>
+      </c>
+      <c r="AD17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <v>111.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18">
+        <v>10.4</v>
+      </c>
+      <c r="I18">
+        <v>217.1</v>
+      </c>
+      <c r="M18">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N18">
+        <v>24</v>
+      </c>
+      <c r="O18">
+        <v>28.5</v>
+      </c>
+      <c r="P18">
+        <v>59.5</v>
+      </c>
+      <c r="Q18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R18">
+        <v>30</v>
+      </c>
+      <c r="S18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="T18">
+        <v>24.8</v>
+      </c>
+      <c r="U18">
+        <v>27.1</v>
+      </c>
+      <c r="V18">
+        <v>52</v>
+      </c>
+      <c r="W18">
+        <v>12.2</v>
+      </c>
+      <c r="X18">
+        <v>35.5</v>
+      </c>
+      <c r="Y18">
+        <v>203</v>
+      </c>
+      <c r="Z18">
+        <v>159</v>
+      </c>
+      <c r="AA18">
+        <v>105</v>
+      </c>
+      <c r="AB18">
+        <v>84</v>
+      </c>
+      <c r="AC18">
+        <v>98</v>
+      </c>
+      <c r="AD18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>108.1</v>
+      </c>
+      <c r="B19">
+        <v>112.9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19">
+        <v>10.6</v>
+      </c>
+      <c r="I19">
+        <v>218</v>
+      </c>
+      <c r="M19">
+        <v>18.2</v>
+      </c>
+      <c r="N19">
+        <v>23.5</v>
+      </c>
+      <c r="O19">
+        <v>25.3</v>
+      </c>
+      <c r="P19">
+        <v>51.3</v>
+      </c>
+      <c r="Q19">
+        <v>13.1</v>
+      </c>
+      <c r="R19">
+        <v>38</v>
+      </c>
+      <c r="S19">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="T19">
+        <v>23.8</v>
+      </c>
+      <c r="U19">
+        <v>33.4</v>
+      </c>
+      <c r="V19">
+        <v>61.3</v>
+      </c>
+      <c r="W19">
+        <v>9.5</v>
+      </c>
+      <c r="X19">
+        <v>28.1</v>
+      </c>
+      <c r="Y19">
+        <v>203</v>
+      </c>
+      <c r="Z19">
+        <v>159</v>
+      </c>
+      <c r="AA19">
+        <v>105</v>
+      </c>
+      <c r="AB19">
+        <v>84</v>
+      </c>
+      <c r="AC19">
+        <v>98</v>
+      </c>
+      <c r="AD19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>117.1</v>
+      </c>
+      <c r="B20">
+        <v>110.2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20">
+        <v>11.2</v>
+      </c>
+      <c r="F20" s="26">
+        <f>A20</f>
+        <v>117.1</v>
+      </c>
+      <c r="G20" s="26">
+        <f>B20</f>
+        <v>110.2</v>
+      </c>
+      <c r="H20">
+        <f>F20+G20</f>
+        <v>227.3</v>
+      </c>
+      <c r="I20">
+        <v>230.4</v>
+      </c>
+      <c r="J20" s="34">
+        <f>K20+L20</f>
+        <v>227.3</v>
+      </c>
+      <c r="K20" s="33">
+        <f>M20+O20*2+Q20*3</f>
+        <v>117.1</v>
+      </c>
+      <c r="L20" s="33">
+        <f>S20+U20*2+W20*3</f>
+        <v>110.2</v>
+      </c>
+      <c r="M20">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N20">
+        <v>23.5</v>
+      </c>
+      <c r="O20">
+        <v>27.5</v>
+      </c>
+      <c r="P20">
+        <v>49.5</v>
+      </c>
+      <c r="Q20">
+        <v>14.5</v>
+      </c>
+      <c r="R20">
+        <v>34.5</v>
+      </c>
+      <c r="S20">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T20">
+        <v>23.5</v>
+      </c>
+      <c r="U20">
+        <v>24.8</v>
+      </c>
+      <c r="V20">
+        <v>46</v>
+      </c>
+      <c r="W20">
+        <v>14.5</v>
+      </c>
+      <c r="X20">
+        <v>40.5</v>
+      </c>
+      <c r="Y20">
+        <v>203</v>
+      </c>
+      <c r="Z20">
+        <v>159</v>
+      </c>
+      <c r="AA20">
+        <v>105</v>
+      </c>
+      <c r="AB20">
+        <v>84</v>
+      </c>
+      <c r="AC20">
+        <v>98</v>
+      </c>
+      <c r="AD20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>112.8</v>
+      </c>
+      <c r="B21">
+        <v>118.9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21">
+        <v>11.3</v>
+      </c>
+      <c r="I21">
+        <v>237.4</v>
+      </c>
+      <c r="M21">
+        <v>16.5</v>
+      </c>
+      <c r="N21">
+        <v>22.8</v>
+      </c>
+      <c r="O21">
+        <v>28.5</v>
+      </c>
+      <c r="P21">
+        <v>54.3</v>
+      </c>
+      <c r="Q21">
+        <v>13.1</v>
+      </c>
+      <c r="R21">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="S21">
+        <v>15.9</v>
+      </c>
+      <c r="T21">
+        <v>23</v>
+      </c>
+      <c r="U21">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="V21">
+        <v>59</v>
+      </c>
+      <c r="W21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="X21">
+        <v>31.5</v>
+      </c>
+      <c r="Y21">
+        <v>203</v>
+      </c>
+      <c r="Z21">
+        <v>159</v>
+      </c>
+      <c r="AA21">
+        <v>105</v>
+      </c>
+      <c r="AB21">
+        <v>84</v>
+      </c>
+      <c r="AC21">
+        <v>98</v>
+      </c>
+      <c r="AD21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>115.6</v>
+      </c>
+      <c r="B22">
+        <v>113.8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22">
+        <v>11.3</v>
+      </c>
+      <c r="I22">
+        <v>224.9</v>
+      </c>
+      <c r="M22">
+        <v>23.4</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>26.9</v>
+      </c>
+      <c r="P22">
+        <v>51.5</v>
+      </c>
+      <c r="Q22">
+        <v>12.8</v>
+      </c>
+      <c r="R22">
+        <v>32.5</v>
+      </c>
+      <c r="S22">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T22">
+        <v>25.8</v>
+      </c>
+      <c r="U22">
+        <v>31.2</v>
+      </c>
+      <c r="V22">
+        <v>51.8</v>
+      </c>
+      <c r="W22">
+        <v>10.6</v>
+      </c>
+      <c r="X22">
+        <v>34.5</v>
+      </c>
+      <c r="Y22">
+        <v>203</v>
+      </c>
+      <c r="Z22">
+        <v>159</v>
+      </c>
+      <c r="AA22">
+        <v>105</v>
+      </c>
+      <c r="AB22">
+        <v>84</v>
+      </c>
+      <c r="AC22">
+        <v>98</v>
+      </c>
+      <c r="AD22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>106.7</v>
+      </c>
+      <c r="B23">
+        <v>112.3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23">
+        <v>11.6</v>
+      </c>
+      <c r="I23">
+        <v>226.9</v>
+      </c>
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <v>22.8</v>
+      </c>
+      <c r="O23">
+        <v>28.9</v>
+      </c>
+      <c r="P23">
+        <v>50.3</v>
+      </c>
+      <c r="Q23">
+        <v>10.3</v>
+      </c>
+      <c r="R23">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="S23">
+        <v>16.8</v>
+      </c>
+      <c r="T23">
+        <v>19.8</v>
+      </c>
+      <c r="U23">
+        <v>31.4</v>
+      </c>
+      <c r="V23">
+        <v>60.3</v>
+      </c>
+      <c r="W23">
+        <v>10.9</v>
+      </c>
+      <c r="X23">
+        <v>30</v>
+      </c>
+      <c r="Y23">
+        <v>203</v>
+      </c>
+      <c r="Z23">
+        <v>159</v>
+      </c>
+      <c r="AA23">
+        <v>105</v>
+      </c>
+      <c r="AB23">
+        <v>84</v>
+      </c>
+      <c r="AC23">
+        <v>98</v>
+      </c>
+      <c r="AD23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>123.6</v>
+      </c>
+      <c r="B24">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24">
+        <v>11.8</v>
+      </c>
+      <c r="I24">
+        <v>231.4</v>
+      </c>
+      <c r="M24">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N24">
+        <v>23.8</v>
+      </c>
+      <c r="O24">
+        <v>32.1</v>
+      </c>
+      <c r="P24">
+        <v>53.8</v>
+      </c>
+      <c r="Q24">
+        <v>13.6</v>
+      </c>
+      <c r="R24">
+        <v>36</v>
+      </c>
+      <c r="S24">
+        <v>19.7</v>
+      </c>
+      <c r="T24">
+        <v>24</v>
+      </c>
+      <c r="U24">
+        <v>31.5</v>
+      </c>
+      <c r="V24">
+        <v>60.8</v>
+      </c>
+      <c r="W24">
+        <v>9.1</v>
+      </c>
+      <c r="X24">
+        <v>29.8</v>
+      </c>
+      <c r="Y24">
+        <v>203</v>
+      </c>
+      <c r="Z24">
+        <v>159</v>
+      </c>
+      <c r="AA24">
+        <v>105</v>
+      </c>
+      <c r="AB24">
+        <v>84</v>
+      </c>
+      <c r="AC24">
+        <v>98</v>
+      </c>
+      <c r="AD24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>114.5</v>
+      </c>
+      <c r="B25">
+        <v>127.9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25">
+        <v>12.9</v>
+      </c>
+      <c r="I25">
+        <v>247</v>
+      </c>
+      <c r="M25">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N25">
+        <v>24.3</v>
+      </c>
+      <c r="O25">
+        <v>33.6</v>
+      </c>
+      <c r="P25">
+        <v>53.5</v>
+      </c>
+      <c r="Q25">
+        <v>9.9</v>
+      </c>
+      <c r="R25">
+        <v>30.5</v>
+      </c>
+      <c r="S25">
+        <v>22</v>
+      </c>
+      <c r="T25">
+        <v>28.5</v>
+      </c>
+      <c r="U25">
+        <v>27.9</v>
+      </c>
+      <c r="V25">
+        <v>54.5</v>
+      </c>
+      <c r="W25">
+        <v>16.7</v>
+      </c>
+      <c r="X25">
+        <v>33.5</v>
+      </c>
+      <c r="Y25">
+        <v>203</v>
+      </c>
+      <c r="Z25">
+        <v>159</v>
+      </c>
+      <c r="AA25">
+        <v>105</v>
+      </c>
+      <c r="AB25">
+        <v>84</v>
+      </c>
+      <c r="AC25">
+        <v>98</v>
+      </c>
+      <c r="AD25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>119.1</v>
+      </c>
+      <c r="B26">
+        <v>115.3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26">
+        <v>13.1</v>
+      </c>
+      <c r="I26">
+        <v>233.1</v>
+      </c>
+      <c r="M26">
+        <v>21.5</v>
+      </c>
+      <c r="N26">
+        <v>26.4</v>
+      </c>
+      <c r="O26">
+        <v>29.6</v>
+      </c>
+      <c r="P26">
+        <v>55.6</v>
+      </c>
+      <c r="Q26">
+        <v>12.8</v>
+      </c>
+      <c r="R26">
+        <v>34</v>
+      </c>
+      <c r="S26">
+        <v>20.9</v>
+      </c>
+      <c r="T26">
+        <v>28.6</v>
+      </c>
+      <c r="U26">
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <v>49.8</v>
+      </c>
+      <c r="W26">
+        <v>14.8</v>
+      </c>
+      <c r="X26">
+        <v>38.5</v>
+      </c>
+      <c r="Y26">
+        <v>203</v>
+      </c>
+      <c r="Z26">
+        <v>159</v>
+      </c>
+      <c r="AA26">
+        <v>105</v>
+      </c>
+      <c r="AB26">
+        <v>84</v>
+      </c>
+      <c r="AC26">
+        <v>98</v>
+      </c>
+      <c r="AD26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>118</v>
+      </c>
+      <c r="B27">
+        <v>120.2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27">
+        <v>14.9</v>
+      </c>
+      <c r="I27">
+        <v>233.7</v>
+      </c>
+      <c r="M27">
+        <v>21.3</v>
+      </c>
+      <c r="N27">
+        <v>27.5</v>
+      </c>
+      <c r="O27">
+        <v>28.4</v>
+      </c>
+      <c r="P27">
+        <v>56</v>
+      </c>
+      <c r="Q27">
+        <v>13.3</v>
+      </c>
+      <c r="R27">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="S27">
+        <v>22.8</v>
+      </c>
+      <c r="T27">
+        <v>28.8</v>
+      </c>
+      <c r="U27">
+        <v>30.1</v>
+      </c>
+      <c r="V27">
+        <v>57.8</v>
+      </c>
+      <c r="W27">
+        <v>12.4</v>
+      </c>
+      <c r="X27">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y27">
+        <v>203</v>
+      </c>
+      <c r="Z27">
+        <v>159</v>
+      </c>
+      <c r="AA27">
+        <v>105</v>
+      </c>
+      <c r="AB27">
+        <v>84</v>
+      </c>
+      <c r="AC27">
+        <v>98</v>
+      </c>
+      <c r="AD27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>108.3</v>
+      </c>
+      <c r="B28">
+        <v>110.8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28">
+        <v>15.4</v>
+      </c>
+      <c r="I28">
+        <v>222.4</v>
+      </c>
+      <c r="M28">
+        <v>16.2</v>
+      </c>
+      <c r="N28">
+        <v>22.7</v>
+      </c>
+      <c r="O28">
+        <v>26.7</v>
+      </c>
+      <c r="P28">
+        <v>50.8</v>
+      </c>
+      <c r="Q28">
+        <v>12.9</v>
+      </c>
+      <c r="R28">
+        <v>34.4</v>
+      </c>
+      <c r="S28">
+        <v>15.6</v>
+      </c>
+      <c r="T28">
+        <v>20.2</v>
+      </c>
+      <c r="U28">
+        <v>28.7</v>
+      </c>
+      <c r="V28">
+        <v>54.1</v>
+      </c>
+      <c r="W28">
+        <v>12.6</v>
+      </c>
+      <c r="X28">
+        <v>31.6</v>
+      </c>
+      <c r="Y28">
+        <v>203</v>
+      </c>
+      <c r="Z28">
+        <v>159</v>
+      </c>
+      <c r="AA28">
+        <v>105</v>
+      </c>
+      <c r="AB28">
+        <v>84</v>
+      </c>
+      <c r="AC28">
+        <v>98</v>
+      </c>
+      <c r="AD28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>111.5</v>
+      </c>
+      <c r="B29">
+        <v>114.2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29">
+        <v>17.5</v>
+      </c>
+      <c r="I29">
+        <v>225</v>
+      </c>
+      <c r="M29">
+        <v>21.9</v>
+      </c>
+      <c r="N29">
+        <v>24.5</v>
+      </c>
+      <c r="O29">
+        <v>17.8</v>
+      </c>
+      <c r="P29">
+        <v>29.5</v>
+      </c>
+      <c r="Q29">
+        <v>18</v>
+      </c>
+      <c r="R29">
+        <v>55.8</v>
+      </c>
+      <c r="S29">
+        <v>19.3</v>
+      </c>
+      <c r="T29">
+        <v>25.8</v>
+      </c>
+      <c r="U29">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="V29">
+        <v>58.3</v>
+      </c>
+      <c r="W29">
+        <v>10.1</v>
+      </c>
+      <c r="X29">
+        <v>30.8</v>
+      </c>
+      <c r="Y29">
+        <v>203</v>
+      </c>
+      <c r="Z29">
+        <v>159</v>
+      </c>
+      <c r="AA29">
+        <v>105</v>
+      </c>
+      <c r="AB29">
+        <v>84</v>
+      </c>
+      <c r="AC29">
+        <v>98</v>
+      </c>
+      <c r="AD29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>112.7</v>
+      </c>
+      <c r="B30">
+        <v>103.8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I30">
+        <v>220.2</v>
+      </c>
+      <c r="M30">
+        <v>18.7</v>
+      </c>
+      <c r="N30">
+        <v>22.4</v>
+      </c>
+      <c r="O30">
+        <v>25.4</v>
+      </c>
+      <c r="P30">
+        <v>45.4</v>
+      </c>
+      <c r="Q30">
+        <v>14.4</v>
+      </c>
+      <c r="R30">
+        <v>36.4</v>
+      </c>
+      <c r="S30">
+        <v>16.7</v>
+      </c>
+      <c r="T30">
+        <v>20</v>
+      </c>
+      <c r="U30">
+        <v>25.7</v>
+      </c>
+      <c r="V30">
+        <v>53.9</v>
+      </c>
+      <c r="W30">
+        <v>11.9</v>
+      </c>
+      <c r="X30">
+        <v>34.1</v>
+      </c>
+      <c r="Y30">
+        <v>203</v>
+      </c>
+      <c r="Z30">
+        <v>159</v>
+      </c>
+      <c r="AA30">
+        <v>105</v>
+      </c>
+      <c r="AB30">
+        <v>84</v>
+      </c>
+      <c r="AC30">
+        <v>98</v>
+      </c>
+      <c r="AD30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>107.3</v>
+      </c>
+      <c r="B31">
+        <v>103.1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31">
+        <v>22.8</v>
+      </c>
+      <c r="I31">
+        <v>215.8</v>
+      </c>
+      <c r="M31">
+        <v>21.3</v>
+      </c>
+      <c r="N31">
+        <v>26.3</v>
+      </c>
+      <c r="O31">
+        <v>23.8</v>
+      </c>
+      <c r="P31">
+        <v>46.3</v>
+      </c>
+      <c r="Q31">
+        <v>12.8</v>
+      </c>
+      <c r="R31">
+        <v>38.5</v>
+      </c>
+      <c r="S31">
+        <v>15.9</v>
+      </c>
+      <c r="T31">
+        <v>22.5</v>
+      </c>
+      <c r="U31">
+        <v>23.8</v>
+      </c>
+      <c r="V31">
+        <v>47.3</v>
+      </c>
+      <c r="W31">
+        <v>13.2</v>
+      </c>
+      <c r="X31">
+        <v>39.5</v>
+      </c>
+      <c r="Y31">
+        <v>203</v>
+      </c>
+      <c r="Z31">
+        <v>159</v>
+      </c>
+      <c r="AA31">
+        <v>105</v>
+      </c>
+      <c r="AB31">
+        <v>84</v>
+      </c>
+      <c r="AC31">
+        <v>98</v>
+      </c>
+      <c r="AD31">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AD31" xr:uid="{1B590E11-52DC-4EBE-B849-4CF2AD76DA41}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="LAC"/>
+        <filter val="MIA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA166A-B952-4400-95C7-BC9B81523308}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8994D-9A37-4F45-9B49-A34A93DB7503}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -30793,19 +33321,19 @@
         <v>223.66666666666666</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" ref="D10:G10" si="0">AVERAGE(D2:D4)</f>
+        <f>AVERAGE(D2:D4)</f>
         <v>228.66666666666666</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E2:E4)</f>
         <v>221.16666666666666</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F2:F4)</f>
         <v>-6.5</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G2:G4)</f>
         <v>220.5</v>
       </c>
       <c r="I10" s="1"/>
@@ -30822,19 +33350,19 @@
         <v>216.2</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" ref="D11:G11" si="1">AVERAGE(D2:D6)</f>
+        <f>AVERAGE(D2:D6)</f>
         <v>228.7</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E2:E6)</f>
         <v>228.24</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F2:F6)</f>
         <v>-7.94</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G2:G6)</f>
         <v>222.84</v>
       </c>
       <c r="I11" s="1"/>
@@ -30851,19 +33379,19 @@
         <v>215.71428571428572</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" ref="D12:G12" si="2">AVERAGE(D2:D8)</f>
+        <f>AVERAGE(D2:D8)</f>
         <v>226.5</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(E2:E8)</f>
         <v>228.8857142857143</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(F2:F8)</f>
         <v>-7.4714285714285724</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G2:G8)</f>
         <v>225.17142857142858</v>
       </c>
     </row>
@@ -32797,19 +35325,19 @@
         <v>228</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" ref="D10:G10" si="0">AVERAGE(D2:D4)</f>
+        <f>AVERAGE(D2:D4)</f>
         <v>236.16666666666666</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E2:E4)</f>
         <v>238.26666666666665</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F2:F4)</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G2:G4)</f>
         <v>226.29999999999998</v>
       </c>
       <c r="I10" s="1"/>
@@ -32826,19 +35354,19 @@
         <v>235.6</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" ref="D11:G11" si="1">AVERAGE(D2:D6)</f>
+        <f>AVERAGE(D2:D6)</f>
         <v>236</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E2:E6)</f>
         <v>234.07999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F2:F6)</f>
         <v>-1.8799999999999997</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G2:G6)</f>
         <v>227.32</v>
       </c>
       <c r="I11" s="1"/>
@@ -32855,19 +35383,19 @@
         <v>223.85714285714286</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" ref="D12:G12" si="2">AVERAGE(D2:D8)</f>
+        <f>AVERAGE(D2:D8)</f>
         <v>235.21428571428572</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(E2:E8)</f>
         <v>233.82857142857142</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(F2:F8)</f>
         <v>-1.3285714285714281</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G2:G8)</f>
         <v>229.71428571428569</v>
       </c>
     </row>
@@ -32877,19 +35405,19 @@
         <v>229.15238095238098</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" ref="D13:G13" si="3">AVERAGE(D10:D12)</f>
+        <f>AVERAGE(D10:D12)</f>
         <v>235.79365079365076</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(E10:E12)</f>
         <v>235.39174603174601</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(F10:F12)</f>
         <v>-0.34730158730158706</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(G10:G12)</f>
         <v>227.77809523809523</v>
       </c>
     </row>
@@ -32900,20 +35428,267 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E45413A-2DFE-46B0-98F6-239A34264025}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44087</v>
+      </c>
+      <c r="E3">
+        <v>6077</v>
+      </c>
+      <c r="F3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40087</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44086</v>
+      </c>
+      <c r="E4">
+        <v>28500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43370</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44086</v>
+      </c>
+      <c r="E5">
+        <v>4594</v>
+      </c>
+      <c r="F5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="1">
+        <v>36526</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44089</v>
+      </c>
+      <c r="E6">
+        <v>712</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40893</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44089</v>
+      </c>
+      <c r="E7">
+        <v>23542</v>
+      </c>
+      <c r="F7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42705</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44089</v>
+      </c>
+      <c r="E8">
+        <v>89862</v>
+      </c>
+      <c r="F8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42705</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44089</v>
+      </c>
+      <c r="E9">
+        <v>8805</v>
+      </c>
+      <c r="F9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42705</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44089</v>
+      </c>
+      <c r="E10">
+        <v>3644</v>
+      </c>
+      <c r="F10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42705</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44086</v>
+      </c>
+      <c r="E11">
+        <v>4136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C30CD6-7A1B-46DF-993E-2F4C15753CF5}">
+  <dimension ref="A2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB0064-19FB-4FAB-B929-74361D69CBF7}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E78"/>
@@ -34263,11 +37038,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5CB16F-31E6-4F61-8C27-E030123AC780}">
   <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -34362,2412 +37137,252 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971C28BF-123D-4486-98C4-A0150FC2C09A}">
-  <sheetPr codeName="Sheet5" filterMode="1"/>
-  <dimension ref="A1:AD31"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0695D2-B22B-4885-BCDD-999399A36C26}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="26" t="str">
-        <f>A1</f>
-        <v>Pts
-Scored</v>
-      </c>
-      <c r="G1" s="26" t="str">
-        <f>B1</f>
-        <v>Pts
-Allowed</v>
-      </c>
-      <c r="H1" s="26" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD1" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>103.2</v>
-      </c>
-      <c r="B2">
-        <v>101.8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2">
-        <v>4.8</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
+        <v>18</v>
+      </c>
+      <c r="C2" s="41">
+        <f>A2*B2</f>
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>202.4</v>
-      </c>
-      <c r="M2">
-        <v>20.9</v>
-      </c>
-      <c r="N2">
-        <v>26.2</v>
-      </c>
-      <c r="O2">
-        <v>25.1</v>
-      </c>
-      <c r="P2">
-        <v>54.8</v>
-      </c>
-      <c r="Q2">
-        <v>10.7</v>
-      </c>
-      <c r="R2">
-        <v>33</v>
-      </c>
-      <c r="S2">
-        <v>19.2</v>
-      </c>
-      <c r="T2">
-        <v>25.8</v>
-      </c>
-      <c r="U2">
-        <v>26.3</v>
-      </c>
-      <c r="V2">
-        <v>50.4</v>
-      </c>
-      <c r="W2">
-        <v>10</v>
-      </c>
-      <c r="X2">
-        <v>34.6</v>
-      </c>
-      <c r="Y2">
-        <v>203</v>
-      </c>
-      <c r="Z2">
-        <v>159</v>
-      </c>
-      <c r="AA2">
-        <v>105</v>
-      </c>
-      <c r="AB2">
-        <v>84</v>
-      </c>
-      <c r="AC2">
-        <v>98</v>
-      </c>
-      <c r="AD2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+        <f>B2*A2</f>
+        <v>18</v>
+      </c>
+      <c r="J2" s="9">
+        <f>D2-I2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>101.3</v>
-      </c>
-      <c r="B3">
-        <v>109.7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3">
-        <v>4.9000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="41">
+        <v>28</v>
+      </c>
+      <c r="C3" s="41">
+        <f>A3*B3</f>
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>210.3</v>
-      </c>
-      <c r="M3">
-        <v>15.3</v>
-      </c>
-      <c r="N3">
-        <v>21.8</v>
-      </c>
-      <c r="O3">
-        <v>22.9</v>
-      </c>
-      <c r="P3">
-        <v>46.8</v>
-      </c>
-      <c r="Q3">
-        <v>13.4</v>
-      </c>
-      <c r="R3">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="S3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="T3">
-        <v>25</v>
-      </c>
-      <c r="U3">
-        <v>30.5</v>
-      </c>
-      <c r="V3">
-        <v>55.3</v>
-      </c>
-      <c r="W3">
-        <v>9.6</v>
-      </c>
-      <c r="X3">
-        <v>27.5</v>
-      </c>
-      <c r="Y3">
-        <v>203</v>
-      </c>
-      <c r="Z3">
-        <v>159</v>
-      </c>
-      <c r="AA3">
-        <v>105</v>
-      </c>
-      <c r="AB3">
-        <v>84</v>
-      </c>
-      <c r="AC3">
-        <v>98</v>
-      </c>
-      <c r="AD3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+        <f>B3*A3</f>
+        <v>56</v>
+      </c>
+      <c r="J3" s="9">
+        <f>D3-I3</f>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>117</v>
-      </c>
-      <c r="B4">
-        <v>118.2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s">
-        <v>173</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="41">
+        <v>12.5</v>
+      </c>
+      <c r="C4" s="41">
+        <f>A4*B4</f>
+        <v>37.5</v>
+      </c>
+      <c r="D4">
+        <v>86</v>
       </c>
       <c r="E4">
-        <v>4.9000000000000004</v>
+        <f>19.4*3</f>
+        <v>58.199999999999996</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="38">
+        <f>H4/I4</f>
+        <v>1.4880000000000002</v>
+      </c>
+      <c r="H4">
+        <f>18.6*3</f>
+        <v>55.800000000000004</v>
       </c>
       <c r="I4">
-        <v>236.7</v>
-      </c>
-      <c r="M4">
-        <v>18.2</v>
-      </c>
-      <c r="N4">
-        <v>26.2</v>
-      </c>
-      <c r="O4">
-        <v>29.3</v>
-      </c>
-      <c r="P4">
-        <v>53.5</v>
-      </c>
-      <c r="Q4">
-        <v>13.4</v>
-      </c>
-      <c r="R4">
-        <v>38.5</v>
-      </c>
-      <c r="S4">
-        <v>21.6</v>
-      </c>
-      <c r="T4">
-        <v>26.7</v>
-      </c>
-      <c r="U4">
-        <v>25.5</v>
-      </c>
-      <c r="V4">
-        <v>50.8</v>
-      </c>
-      <c r="W4">
-        <v>15.2</v>
-      </c>
-      <c r="X4">
-        <v>44.3</v>
-      </c>
-      <c r="Y4">
-        <v>203</v>
-      </c>
-      <c r="Z4">
-        <v>159</v>
-      </c>
-      <c r="AA4">
-        <v>105</v>
-      </c>
-      <c r="AB4">
-        <v>84</v>
-      </c>
-      <c r="AC4">
-        <v>98</v>
-      </c>
-      <c r="AD4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>117.8</v>
-      </c>
-      <c r="B5">
-        <v>112.5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5">
+        <f>B4*3</f>
+        <v>37.5</v>
+      </c>
+      <c r="J4" s="9">
+        <f>D4-I4</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="40">
+        <f>B2+B3*2+B4*3</f>
+        <v>111.5</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="J5" s="9">
+        <f>SUM(J2:J4)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="40">
+        <v>18</v>
+      </c>
+      <c r="C7" s="41">
+        <f>A7*B7</f>
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>24.5</v>
+      </c>
+      <c r="I7">
+        <f>B7*A7</f>
+        <v>18</v>
+      </c>
+      <c r="J7" s="9">
+        <f>D7-I7</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="40">
+        <v>28</v>
+      </c>
+      <c r="C8" s="41">
+        <f>A8*B8</f>
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>47.5</v>
+      </c>
+      <c r="I8">
+        <f>B8*A8</f>
+        <v>56</v>
+      </c>
+      <c r="J8" s="9">
+        <f>D8-I8</f>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="40">
+        <v>12.5</v>
+      </c>
+      <c r="C9" s="41">
+        <f>A9*B9</f>
+        <v>37.5</v>
+      </c>
+      <c r="D9">
+        <v>60.5</v>
+      </c>
+      <c r="E9">
+        <f>16.6*3</f>
+        <v>49.800000000000004</v>
+      </c>
+      <c r="F9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>234.9</v>
-      </c>
-      <c r="M5">
-        <v>13.9</v>
-      </c>
-      <c r="N5">
-        <v>16.8</v>
-      </c>
-      <c r="O5">
-        <v>32.9</v>
-      </c>
-      <c r="P5">
-        <v>58</v>
-      </c>
-      <c r="Q5">
-        <v>12.7</v>
-      </c>
-      <c r="R5">
-        <v>31</v>
-      </c>
-      <c r="S5">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="T5">
-        <v>22.3</v>
-      </c>
-      <c r="U5">
-        <v>30</v>
-      </c>
-      <c r="V5">
-        <v>58.3</v>
-      </c>
-      <c r="W5">
-        <v>11.7</v>
-      </c>
-      <c r="X5">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="Y5">
-        <v>203</v>
-      </c>
-      <c r="Z5">
-        <v>159</v>
-      </c>
-      <c r="AA5">
-        <v>105</v>
-      </c>
-      <c r="AB5">
-        <v>84</v>
-      </c>
-      <c r="AC5">
-        <v>98</v>
-      </c>
-      <c r="AD5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>109.7</v>
-      </c>
-      <c r="B6">
-        <v>116.4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6">
-        <v>5.4</v>
-      </c>
-      <c r="I6">
-        <v>221.8</v>
-      </c>
-      <c r="M6">
-        <v>23.8</v>
-      </c>
-      <c r="N6">
-        <v>28.1</v>
-      </c>
-      <c r="O6">
-        <v>27.8</v>
-      </c>
-      <c r="P6">
-        <v>54.3</v>
-      </c>
-      <c r="Q6">
-        <v>10.1</v>
-      </c>
-      <c r="R6">
-        <v>34.5</v>
-      </c>
-      <c r="S6">
-        <v>13.8</v>
-      </c>
-      <c r="T6">
-        <v>17.5</v>
-      </c>
-      <c r="U6">
-        <v>30.3</v>
-      </c>
-      <c r="V6">
-        <v>56.8</v>
-      </c>
-      <c r="W6">
-        <v>14</v>
-      </c>
-      <c r="X6">
-        <v>34.5</v>
-      </c>
-      <c r="Y6">
-        <v>203</v>
-      </c>
-      <c r="Z6">
-        <v>159</v>
-      </c>
-      <c r="AA6">
-        <v>105</v>
-      </c>
-      <c r="AB6">
-        <v>84</v>
-      </c>
-      <c r="AC6">
-        <v>98</v>
-      </c>
-      <c r="AD6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>117.4</v>
-      </c>
-      <c r="B7">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7">
-        <v>5.8</v>
-      </c>
-      <c r="I7">
-        <v>224.2</v>
-      </c>
-      <c r="M7">
-        <v>20.9</v>
-      </c>
-      <c r="N7">
-        <v>26.2</v>
-      </c>
-      <c r="O7">
-        <v>27.4</v>
-      </c>
-      <c r="P7">
-        <v>51.3</v>
-      </c>
-      <c r="Q7">
-        <v>13.9</v>
-      </c>
-      <c r="R7">
-        <v>35.1</v>
-      </c>
-      <c r="S7">
-        <v>17.2</v>
-      </c>
-      <c r="T7">
-        <v>21.1</v>
-      </c>
-      <c r="U7">
-        <v>27.3</v>
-      </c>
-      <c r="V7">
-        <v>55.7</v>
-      </c>
-      <c r="W7">
-        <v>12.4</v>
-      </c>
-      <c r="X7">
-        <v>35.6</v>
-      </c>
-      <c r="Y7">
-        <v>203</v>
-      </c>
-      <c r="Z7">
-        <v>159</v>
-      </c>
-      <c r="AA7">
-        <v>105</v>
-      </c>
-      <c r="AB7">
-        <v>84</v>
-      </c>
-      <c r="AC7">
-        <v>98</v>
-      </c>
-      <c r="AD7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>101.8</v>
-      </c>
-      <c r="B8">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8">
-        <v>6.2</v>
-      </c>
-      <c r="I8">
-        <v>211.7</v>
-      </c>
-      <c r="M8">
-        <v>14.3</v>
-      </c>
-      <c r="N8">
-        <v>21.5</v>
-      </c>
-      <c r="O8">
-        <v>22.6</v>
-      </c>
-      <c r="P8">
-        <v>51.9</v>
-      </c>
-      <c r="Q8">
-        <v>14.1</v>
-      </c>
-      <c r="R8">
-        <v>35.1</v>
-      </c>
-      <c r="S8">
-        <v>12.9</v>
-      </c>
-      <c r="T8">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="U8">
-        <v>28.8</v>
-      </c>
-      <c r="V8">
-        <v>50.8</v>
-      </c>
-      <c r="W8">
-        <v>13.5</v>
-      </c>
-      <c r="X8">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="Y8">
-        <v>203</v>
-      </c>
-      <c r="Z8">
-        <v>159</v>
-      </c>
-      <c r="AA8">
-        <v>105</v>
-      </c>
-      <c r="AB8">
-        <v>84</v>
-      </c>
-      <c r="AC8">
-        <v>98</v>
-      </c>
-      <c r="AD8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>114.5</v>
-      </c>
-      <c r="B9">
-        <v>106.3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9">
-        <v>7.6</v>
+      <c r="G9" s="38">
+        <f>H9/I9</f>
+        <v>1.228</v>
+      </c>
+      <c r="H9">
+        <f>15.35*3</f>
+        <v>46.05</v>
       </c>
       <c r="I9">
-        <v>226.9</v>
-      </c>
-      <c r="M9">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N9">
-        <v>24.8</v>
-      </c>
-      <c r="O9">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="P9">
-        <v>57.5</v>
-      </c>
-      <c r="Q9">
-        <v>9.6</v>
-      </c>
-      <c r="R9">
-        <v>30.8</v>
-      </c>
-      <c r="S9">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="T9">
-        <v>23.5</v>
-      </c>
-      <c r="U9">
-        <v>24.6</v>
-      </c>
-      <c r="V9">
-        <v>54.5</v>
-      </c>
-      <c r="W9">
-        <v>13.4</v>
-      </c>
-      <c r="X9">
+        <f>B9*3</f>
         <v>37.5</v>
       </c>
-      <c r="Y9">
-        <v>203</v>
-      </c>
-      <c r="Z9">
-        <v>159</v>
-      </c>
-      <c r="AA9">
-        <v>105</v>
-      </c>
-      <c r="AB9">
-        <v>84</v>
-      </c>
-      <c r="AC9">
-        <v>98</v>
-      </c>
-      <c r="AD9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>115</v>
-      </c>
-      <c r="B10">
-        <v>122.9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10">
-        <v>7.8</v>
-      </c>
-      <c r="I10">
-        <v>229.9</v>
-      </c>
-      <c r="M10">
-        <v>16.5</v>
-      </c>
-      <c r="N10">
-        <v>21.8</v>
-      </c>
-      <c r="O10">
-        <v>32.9</v>
-      </c>
-      <c r="P10">
-        <v>56.6</v>
-      </c>
-      <c r="Q10">
-        <v>10.9</v>
-      </c>
-      <c r="R10">
-        <v>32.9</v>
-      </c>
-      <c r="S10">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="T10">
-        <v>25</v>
-      </c>
-      <c r="U10">
-        <v>25.3</v>
-      </c>
-      <c r="V10">
-        <v>47.3</v>
-      </c>
-      <c r="W10">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="X10">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="Y10">
-        <v>203</v>
-      </c>
-      <c r="Z10">
-        <v>159</v>
-      </c>
-      <c r="AA10">
-        <v>105</v>
-      </c>
-      <c r="AB10">
-        <v>84</v>
-      </c>
-      <c r="AC10">
-        <v>98</v>
-      </c>
-      <c r="AD10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>118.4</v>
-      </c>
-      <c r="B11">
-        <v>117.6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I11">
-        <v>243.3</v>
-      </c>
-      <c r="M11">
-        <v>26.3</v>
-      </c>
-      <c r="N11">
-        <v>32.5</v>
-      </c>
-      <c r="O11">
-        <v>29.1</v>
-      </c>
-      <c r="P11">
-        <v>61</v>
-      </c>
-      <c r="Q11">
-        <v>11.3</v>
-      </c>
-      <c r="R11">
-        <v>25.8</v>
-      </c>
-      <c r="S11">
-        <v>16.8</v>
-      </c>
-      <c r="T11">
-        <v>20</v>
-      </c>
-      <c r="U11">
-        <v>32.4</v>
-      </c>
-      <c r="V11">
-        <v>59.5</v>
-      </c>
-      <c r="W11">
-        <v>12</v>
-      </c>
-      <c r="X11">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="Y11">
-        <v>203</v>
-      </c>
-      <c r="Z11">
-        <v>159</v>
-      </c>
-      <c r="AA11">
-        <v>105</v>
-      </c>
-      <c r="AB11">
-        <v>84</v>
-      </c>
-      <c r="AC11">
-        <v>98</v>
-      </c>
-      <c r="AD11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>118.9</v>
-      </c>
-      <c r="B12">
-        <v>117.7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I12">
-        <v>228.6</v>
-      </c>
-      <c r="M12">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="N12">
-        <v>26.8</v>
-      </c>
-      <c r="O12">
-        <v>29.5</v>
-      </c>
-      <c r="P12">
-        <v>53.8</v>
-      </c>
-      <c r="Q12">
-        <v>13.5</v>
-      </c>
-      <c r="R12">
-        <v>37</v>
-      </c>
-      <c r="S12">
+      <c r="J9" s="9">
+        <f>D9-I9</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="40">
+        <f>B7+B8*2+B9*3</f>
+        <v>111.5</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="J10" s="9">
+        <f>SUM(J7:J9)</f>
         <v>21</v>
       </c>
-      <c r="T12">
-        <v>25.8</v>
-      </c>
-      <c r="U12">
-        <v>31.7</v>
-      </c>
-      <c r="V12">
-        <v>56.8</v>
-      </c>
-      <c r="W12">
-        <v>11.1</v>
-      </c>
-      <c r="X12">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="Y12">
-        <v>203</v>
-      </c>
-      <c r="Z12">
-        <v>159</v>
-      </c>
-      <c r="AA12">
-        <v>105</v>
-      </c>
-      <c r="AB12">
-        <v>84</v>
-      </c>
-      <c r="AC12">
-        <v>98</v>
-      </c>
-      <c r="AD12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>111.1</v>
-      </c>
-      <c r="B13">
-        <v>114.8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I13">
-        <v>219</v>
-      </c>
-      <c r="M13">
-        <v>20.8</v>
-      </c>
-      <c r="N13">
-        <v>28.3</v>
-      </c>
-      <c r="O13">
-        <v>27.9</v>
-      </c>
-      <c r="P13">
-        <v>53</v>
-      </c>
-      <c r="Q13">
-        <v>11.5</v>
-      </c>
-      <c r="R13">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="S13">
-        <v>19.5</v>
-      </c>
-      <c r="T13">
-        <v>24.8</v>
-      </c>
-      <c r="U13">
-        <v>27.4</v>
-      </c>
-      <c r="V13">
-        <v>48.8</v>
-      </c>
-      <c r="W13">
-        <v>13.5</v>
-      </c>
-      <c r="X13">
-        <v>32.5</v>
-      </c>
-      <c r="Y13">
-        <v>203</v>
-      </c>
-      <c r="Z13">
-        <v>159</v>
-      </c>
-      <c r="AA13">
-        <v>105</v>
-      </c>
-      <c r="AB13">
-        <v>84</v>
-      </c>
-      <c r="AC13">
-        <v>98</v>
-      </c>
-      <c r="AD13">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>107.9</v>
-      </c>
-      <c r="B14">
-        <v>107.3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14">
-        <v>9.6</v>
-      </c>
-      <c r="I14">
-        <v>216.6</v>
-      </c>
-      <c r="M14">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="N14">
-        <v>14</v>
-      </c>
-      <c r="O14">
-        <v>33.6</v>
-      </c>
-      <c r="P14">
-        <v>58.3</v>
-      </c>
-      <c r="Q14">
-        <v>10.3</v>
-      </c>
-      <c r="R14">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="S14">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="T14">
-        <v>27.8</v>
-      </c>
-      <c r="U14">
-        <v>29.9</v>
-      </c>
-      <c r="V14">
-        <v>49.3</v>
-      </c>
-      <c r="W14">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="X14">
-        <v>29.5</v>
-      </c>
-      <c r="Y14">
-        <v>203</v>
-      </c>
-      <c r="Z14">
-        <v>159</v>
-      </c>
-      <c r="AA14">
-        <v>105</v>
-      </c>
-      <c r="AB14">
-        <v>84</v>
-      </c>
-      <c r="AC14">
-        <v>98</v>
-      </c>
-      <c r="AD14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>114</v>
-      </c>
-      <c r="B15">
-        <v>108.7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15">
-        <v>9.9</v>
-      </c>
-      <c r="F15" s="26">
-        <f>A15</f>
-        <v>114</v>
-      </c>
-      <c r="G15" s="26">
-        <f>B15</f>
-        <v>108.7</v>
-      </c>
-      <c r="H15">
-        <f>F15+G15</f>
-        <v>222.7</v>
-      </c>
-      <c r="I15">
-        <v>235.7</v>
-      </c>
-      <c r="J15" s="34">
-        <f>K15+L15</f>
-        <v>222.7</v>
-      </c>
-      <c r="K15" s="33">
-        <f>M15+O15*2+Q15*3</f>
-        <v>114</v>
-      </c>
-      <c r="L15" s="33">
-        <f>S15+U15*2+W15*3</f>
-        <v>108.69999999999999</v>
-      </c>
-      <c r="M15">
-        <v>24.1</v>
-      </c>
-      <c r="N15">
-        <v>28</v>
-      </c>
-      <c r="O15">
-        <v>22.3</v>
-      </c>
-      <c r="P15">
-        <v>40.5</v>
-      </c>
-      <c r="Q15">
-        <v>15.1</v>
-      </c>
-      <c r="R15">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="S15">
-        <v>22.9</v>
-      </c>
-      <c r="T15">
-        <v>27.5</v>
-      </c>
-      <c r="U15">
-        <v>21.6</v>
-      </c>
-      <c r="V15">
-        <v>43.3</v>
-      </c>
-      <c r="W15">
-        <v>14.2</v>
-      </c>
-      <c r="X15">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="Y15">
-        <v>203</v>
-      </c>
-      <c r="Z15">
-        <v>159</v>
-      </c>
-      <c r="AA15">
-        <v>105</v>
-      </c>
-      <c r="AB15">
-        <v>84</v>
-      </c>
-      <c r="AC15">
-        <v>98</v>
-      </c>
-      <c r="AD15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>108.9</v>
-      </c>
-      <c r="B16">
-        <v>114.7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I16">
-        <v>229.3</v>
-      </c>
-      <c r="M16">
-        <v>18.3</v>
-      </c>
-      <c r="N16">
-        <v>25.7</v>
-      </c>
-      <c r="O16">
-        <v>34.5</v>
-      </c>
-      <c r="P16">
-        <v>62.4</v>
-      </c>
-      <c r="Q16">
-        <v>7.2</v>
-      </c>
-      <c r="R16">
-        <v>21.1</v>
-      </c>
-      <c r="S16">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="T16">
-        <v>26.6</v>
-      </c>
-      <c r="U16">
-        <v>27.5</v>
-      </c>
-      <c r="V16">
-        <v>52.7</v>
-      </c>
-      <c r="W16">
-        <v>13.1</v>
-      </c>
-      <c r="X16">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="Y16">
-        <v>203</v>
-      </c>
-      <c r="Z16">
-        <v>159</v>
-      </c>
-      <c r="AA16">
-        <v>105</v>
-      </c>
-      <c r="AB16">
-        <v>84</v>
-      </c>
-      <c r="AC16">
-        <v>98</v>
-      </c>
-      <c r="AD16">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>119</v>
-      </c>
-      <c r="B17">
-        <v>125.1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17">
-        <v>10.3</v>
-      </c>
-      <c r="I17">
-        <v>244.9</v>
-      </c>
-      <c r="M17">
-        <v>14.7</v>
-      </c>
-      <c r="N17">
-        <v>19.5</v>
-      </c>
-      <c r="O17">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="P17">
-        <v>54.3</v>
-      </c>
-      <c r="Q17">
-        <v>13.3</v>
-      </c>
-      <c r="R17">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="S17">
-        <v>18.7</v>
-      </c>
-      <c r="T17">
-        <v>26.3</v>
-      </c>
-      <c r="U17">
-        <v>30.1</v>
-      </c>
-      <c r="V17">
-        <v>54.5</v>
-      </c>
-      <c r="W17">
-        <v>15.4</v>
-      </c>
-      <c r="X17">
-        <v>34.5</v>
-      </c>
-      <c r="Y17">
-        <v>203</v>
-      </c>
-      <c r="Z17">
-        <v>159</v>
-      </c>
-      <c r="AA17">
-        <v>105</v>
-      </c>
-      <c r="AB17">
-        <v>84</v>
-      </c>
-      <c r="AC17">
-        <v>98</v>
-      </c>
-      <c r="AD17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>106</v>
-      </c>
-      <c r="B18">
-        <v>111.2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18">
-        <v>10.4</v>
-      </c>
-      <c r="I18">
-        <v>217.1</v>
-      </c>
-      <c r="M18">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="N18">
-        <v>24</v>
-      </c>
-      <c r="O18">
-        <v>28.5</v>
-      </c>
-      <c r="P18">
-        <v>59.5</v>
-      </c>
-      <c r="Q18">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="R18">
-        <v>30</v>
-      </c>
-      <c r="S18">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="T18">
-        <v>24.8</v>
-      </c>
-      <c r="U18">
-        <v>27.1</v>
-      </c>
-      <c r="V18">
-        <v>52</v>
-      </c>
-      <c r="W18">
-        <v>12.2</v>
-      </c>
-      <c r="X18">
-        <v>35.5</v>
-      </c>
-      <c r="Y18">
-        <v>203</v>
-      </c>
-      <c r="Z18">
-        <v>159</v>
-      </c>
-      <c r="AA18">
-        <v>105</v>
-      </c>
-      <c r="AB18">
-        <v>84</v>
-      </c>
-      <c r="AC18">
-        <v>98</v>
-      </c>
-      <c r="AD18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>108.1</v>
-      </c>
-      <c r="B19">
-        <v>112.9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19">
-        <v>10.6</v>
-      </c>
-      <c r="I19">
-        <v>218</v>
-      </c>
-      <c r="M19">
-        <v>18.2</v>
-      </c>
-      <c r="N19">
-        <v>23.5</v>
-      </c>
-      <c r="O19">
-        <v>25.3</v>
-      </c>
-      <c r="P19">
-        <v>51.3</v>
-      </c>
-      <c r="Q19">
-        <v>13.1</v>
-      </c>
-      <c r="R19">
-        <v>38</v>
-      </c>
-      <c r="S19">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="T19">
-        <v>23.8</v>
-      </c>
-      <c r="U19">
-        <v>33.4</v>
-      </c>
-      <c r="V19">
-        <v>61.3</v>
-      </c>
-      <c r="W19">
-        <v>9.5</v>
-      </c>
-      <c r="X19">
-        <v>28.1</v>
-      </c>
-      <c r="Y19">
-        <v>203</v>
-      </c>
-      <c r="Z19">
-        <v>159</v>
-      </c>
-      <c r="AA19">
-        <v>105</v>
-      </c>
-      <c r="AB19">
-        <v>84</v>
-      </c>
-      <c r="AC19">
-        <v>98</v>
-      </c>
-      <c r="AD19">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>117.1</v>
-      </c>
-      <c r="B20">
-        <v>110.2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20">
-        <v>11.2</v>
-      </c>
-      <c r="F20" s="26">
-        <f>A20</f>
-        <v>117.1</v>
-      </c>
-      <c r="G20" s="26">
-        <f>B20</f>
-        <v>110.2</v>
-      </c>
-      <c r="H20">
-        <f>F20+G20</f>
-        <v>227.3</v>
-      </c>
-      <c r="I20">
-        <v>230.4</v>
-      </c>
-      <c r="J20" s="34">
-        <f>K20+L20</f>
-        <v>227.3</v>
-      </c>
-      <c r="K20" s="33">
-        <f>M20+O20*2+Q20*3</f>
-        <v>117.1</v>
-      </c>
-      <c r="L20" s="33">
-        <f>S20+U20*2+W20*3</f>
-        <v>110.2</v>
-      </c>
-      <c r="M20">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="N20">
-        <v>23.5</v>
-      </c>
-      <c r="O20">
-        <v>27.5</v>
-      </c>
-      <c r="P20">
-        <v>49.5</v>
-      </c>
-      <c r="Q20">
-        <v>14.5</v>
-      </c>
-      <c r="R20">
-        <v>34.5</v>
-      </c>
-      <c r="S20">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="T20">
-        <v>23.5</v>
-      </c>
-      <c r="U20">
-        <v>24.8</v>
-      </c>
-      <c r="V20">
-        <v>46</v>
-      </c>
-      <c r="W20">
-        <v>14.5</v>
-      </c>
-      <c r="X20">
-        <v>40.5</v>
-      </c>
-      <c r="Y20">
-        <v>203</v>
-      </c>
-      <c r="Z20">
-        <v>159</v>
-      </c>
-      <c r="AA20">
-        <v>105</v>
-      </c>
-      <c r="AB20">
-        <v>84</v>
-      </c>
-      <c r="AC20">
-        <v>98</v>
-      </c>
-      <c r="AD20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>112.8</v>
-      </c>
-      <c r="B21">
-        <v>118.9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21">
-        <v>11.3</v>
-      </c>
-      <c r="I21">
-        <v>237.4</v>
-      </c>
-      <c r="M21">
-        <v>16.5</v>
-      </c>
-      <c r="N21">
-        <v>22.8</v>
-      </c>
-      <c r="O21">
-        <v>28.5</v>
-      </c>
-      <c r="P21">
-        <v>54.3</v>
-      </c>
-      <c r="Q21">
-        <v>13.1</v>
-      </c>
-      <c r="R21">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="S21">
-        <v>15.9</v>
-      </c>
-      <c r="T21">
-        <v>23</v>
-      </c>
-      <c r="U21">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="V21">
-        <v>59</v>
-      </c>
-      <c r="W21">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="X21">
-        <v>31.5</v>
-      </c>
-      <c r="Y21">
-        <v>203</v>
-      </c>
-      <c r="Z21">
-        <v>159</v>
-      </c>
-      <c r="AA21">
-        <v>105</v>
-      </c>
-      <c r="AB21">
-        <v>84</v>
-      </c>
-      <c r="AC21">
-        <v>98</v>
-      </c>
-      <c r="AD21">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>115.6</v>
-      </c>
-      <c r="B22">
-        <v>113.8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22">
-        <v>11.3</v>
-      </c>
-      <c r="I22">
-        <v>224.9</v>
-      </c>
-      <c r="M22">
-        <v>23.4</v>
-      </c>
-      <c r="N22">
-        <v>30</v>
-      </c>
-      <c r="O22">
-        <v>26.9</v>
-      </c>
-      <c r="P22">
-        <v>51.5</v>
-      </c>
-      <c r="Q22">
-        <v>12.8</v>
-      </c>
-      <c r="R22">
-        <v>32.5</v>
-      </c>
-      <c r="S22">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="T22">
-        <v>25.8</v>
-      </c>
-      <c r="U22">
-        <v>31.2</v>
-      </c>
-      <c r="V22">
-        <v>51.8</v>
-      </c>
-      <c r="W22">
-        <v>10.6</v>
-      </c>
-      <c r="X22">
-        <v>34.5</v>
-      </c>
-      <c r="Y22">
-        <v>203</v>
-      </c>
-      <c r="Z22">
-        <v>159</v>
-      </c>
-      <c r="AA22">
-        <v>105</v>
-      </c>
-      <c r="AB22">
-        <v>84</v>
-      </c>
-      <c r="AC22">
-        <v>98</v>
-      </c>
-      <c r="AD22">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>106.7</v>
-      </c>
-      <c r="B23">
-        <v>112.3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23">
-        <v>11.6</v>
-      </c>
-      <c r="I23">
-        <v>226.9</v>
-      </c>
-      <c r="M23">
-        <v>18</v>
-      </c>
-      <c r="N23">
-        <v>22.8</v>
-      </c>
-      <c r="O23">
-        <v>28.9</v>
-      </c>
-      <c r="P23">
-        <v>50.3</v>
-      </c>
-      <c r="Q23">
-        <v>10.3</v>
-      </c>
-      <c r="R23">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="S23">
-        <v>16.8</v>
-      </c>
-      <c r="T23">
-        <v>19.8</v>
-      </c>
-      <c r="U23">
-        <v>31.4</v>
-      </c>
-      <c r="V23">
-        <v>60.3</v>
-      </c>
-      <c r="W23">
-        <v>10.9</v>
-      </c>
-      <c r="X23">
-        <v>30</v>
-      </c>
-      <c r="Y23">
-        <v>203</v>
-      </c>
-      <c r="Z23">
-        <v>159</v>
-      </c>
-      <c r="AA23">
-        <v>105</v>
-      </c>
-      <c r="AB23">
-        <v>84</v>
-      </c>
-      <c r="AC23">
-        <v>98</v>
-      </c>
-      <c r="AD23">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>123.6</v>
-      </c>
-      <c r="B24">
-        <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24">
-        <v>11.8</v>
-      </c>
-      <c r="I24">
-        <v>231.4</v>
-      </c>
-      <c r="M24">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="N24">
-        <v>23.8</v>
-      </c>
-      <c r="O24">
-        <v>32.1</v>
-      </c>
-      <c r="P24">
-        <v>53.8</v>
-      </c>
-      <c r="Q24">
-        <v>13.6</v>
-      </c>
-      <c r="R24">
-        <v>36</v>
-      </c>
-      <c r="S24">
-        <v>19.7</v>
-      </c>
-      <c r="T24">
-        <v>24</v>
-      </c>
-      <c r="U24">
-        <v>31.5</v>
-      </c>
-      <c r="V24">
-        <v>60.8</v>
-      </c>
-      <c r="W24">
-        <v>9.1</v>
-      </c>
-      <c r="X24">
-        <v>29.8</v>
-      </c>
-      <c r="Y24">
-        <v>203</v>
-      </c>
-      <c r="Z24">
-        <v>159</v>
-      </c>
-      <c r="AA24">
-        <v>105</v>
-      </c>
-      <c r="AB24">
-        <v>84</v>
-      </c>
-      <c r="AC24">
-        <v>98</v>
-      </c>
-      <c r="AD24">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>114.5</v>
-      </c>
-      <c r="B25">
-        <v>127.9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25">
-        <v>12.9</v>
-      </c>
-      <c r="I25">
-        <v>247</v>
-      </c>
-      <c r="M25">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="N25">
-        <v>24.3</v>
-      </c>
-      <c r="O25">
-        <v>33.6</v>
-      </c>
-      <c r="P25">
-        <v>53.5</v>
-      </c>
-      <c r="Q25">
-        <v>9.9</v>
-      </c>
-      <c r="R25">
-        <v>30.5</v>
-      </c>
-      <c r="S25">
-        <v>22</v>
-      </c>
-      <c r="T25">
-        <v>28.5</v>
-      </c>
-      <c r="U25">
-        <v>27.9</v>
-      </c>
-      <c r="V25">
-        <v>54.5</v>
-      </c>
-      <c r="W25">
-        <v>16.7</v>
-      </c>
-      <c r="X25">
-        <v>33.5</v>
-      </c>
-      <c r="Y25">
-        <v>203</v>
-      </c>
-      <c r="Z25">
-        <v>159</v>
-      </c>
-      <c r="AA25">
-        <v>105</v>
-      </c>
-      <c r="AB25">
-        <v>84</v>
-      </c>
-      <c r="AC25">
-        <v>98</v>
-      </c>
-      <c r="AD25">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>119.1</v>
-      </c>
-      <c r="B26">
-        <v>115.3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26">
-        <v>13.1</v>
-      </c>
-      <c r="I26">
-        <v>233.1</v>
-      </c>
-      <c r="M26">
-        <v>21.5</v>
-      </c>
-      <c r="N26">
-        <v>26.4</v>
-      </c>
-      <c r="O26">
-        <v>29.6</v>
-      </c>
-      <c r="P26">
-        <v>55.6</v>
-      </c>
-      <c r="Q26">
-        <v>12.8</v>
-      </c>
-      <c r="R26">
-        <v>34</v>
-      </c>
-      <c r="S26">
-        <v>20.9</v>
-      </c>
-      <c r="T26">
-        <v>28.6</v>
-      </c>
-      <c r="U26">
-        <v>25</v>
-      </c>
-      <c r="V26">
-        <v>49.8</v>
-      </c>
-      <c r="W26">
-        <v>14.8</v>
-      </c>
-      <c r="X26">
-        <v>38.5</v>
-      </c>
-      <c r="Y26">
-        <v>203</v>
-      </c>
-      <c r="Z26">
-        <v>159</v>
-      </c>
-      <c r="AA26">
-        <v>105</v>
-      </c>
-      <c r="AB26">
-        <v>84</v>
-      </c>
-      <c r="AC26">
-        <v>98</v>
-      </c>
-      <c r="AD26">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>118</v>
-      </c>
-      <c r="B27">
-        <v>120.2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27">
-        <v>14.9</v>
-      </c>
-      <c r="I27">
-        <v>233.7</v>
-      </c>
-      <c r="M27">
-        <v>21.3</v>
-      </c>
-      <c r="N27">
-        <v>27.5</v>
-      </c>
-      <c r="O27">
-        <v>28.4</v>
-      </c>
-      <c r="P27">
-        <v>56</v>
-      </c>
-      <c r="Q27">
-        <v>13.3</v>
-      </c>
-      <c r="R27">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="S27">
-        <v>22.8</v>
-      </c>
-      <c r="T27">
-        <v>28.8</v>
-      </c>
-      <c r="U27">
-        <v>30.1</v>
-      </c>
-      <c r="V27">
-        <v>57.8</v>
-      </c>
-      <c r="W27">
-        <v>12.4</v>
-      </c>
-      <c r="X27">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="Y27">
-        <v>203</v>
-      </c>
-      <c r="Z27">
-        <v>159</v>
-      </c>
-      <c r="AA27">
-        <v>105</v>
-      </c>
-      <c r="AB27">
-        <v>84</v>
-      </c>
-      <c r="AC27">
-        <v>98</v>
-      </c>
-      <c r="AD27">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>108.3</v>
-      </c>
-      <c r="B28">
-        <v>110.8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28">
-        <v>15.4</v>
-      </c>
-      <c r="I28">
-        <v>222.4</v>
-      </c>
-      <c r="M28">
-        <v>16.2</v>
-      </c>
-      <c r="N28">
-        <v>22.7</v>
-      </c>
-      <c r="O28">
-        <v>26.7</v>
-      </c>
-      <c r="P28">
-        <v>50.8</v>
-      </c>
-      <c r="Q28">
-        <v>12.9</v>
-      </c>
-      <c r="R28">
-        <v>34.4</v>
-      </c>
-      <c r="S28">
-        <v>15.6</v>
-      </c>
-      <c r="T28">
-        <v>20.2</v>
-      </c>
-      <c r="U28">
-        <v>28.7</v>
-      </c>
-      <c r="V28">
-        <v>54.1</v>
-      </c>
-      <c r="W28">
-        <v>12.6</v>
-      </c>
-      <c r="X28">
-        <v>31.6</v>
-      </c>
-      <c r="Y28">
-        <v>203</v>
-      </c>
-      <c r="Z28">
-        <v>159</v>
-      </c>
-      <c r="AA28">
-        <v>105</v>
-      </c>
-      <c r="AB28">
-        <v>84</v>
-      </c>
-      <c r="AC28">
-        <v>98</v>
-      </c>
-      <c r="AD28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>111.5</v>
-      </c>
-      <c r="B29">
-        <v>114.2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29">
-        <v>17.5</v>
-      </c>
-      <c r="I29">
-        <v>225</v>
-      </c>
-      <c r="M29">
-        <v>21.9</v>
-      </c>
-      <c r="N29">
-        <v>24.5</v>
-      </c>
-      <c r="O29">
-        <v>17.8</v>
-      </c>
-      <c r="P29">
-        <v>29.5</v>
-      </c>
-      <c r="Q29">
-        <v>18</v>
-      </c>
-      <c r="R29">
-        <v>55.8</v>
-      </c>
-      <c r="S29">
-        <v>19.3</v>
-      </c>
-      <c r="T29">
-        <v>25.8</v>
-      </c>
-      <c r="U29">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="V29">
-        <v>58.3</v>
-      </c>
-      <c r="W29">
-        <v>10.1</v>
-      </c>
-      <c r="X29">
-        <v>30.8</v>
-      </c>
-      <c r="Y29">
-        <v>203</v>
-      </c>
-      <c r="Z29">
-        <v>159</v>
-      </c>
-      <c r="AA29">
-        <v>105</v>
-      </c>
-      <c r="AB29">
-        <v>84</v>
-      </c>
-      <c r="AC29">
-        <v>98</v>
-      </c>
-      <c r="AD29">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>112.7</v>
-      </c>
-      <c r="B30">
-        <v>103.8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I30">
-        <v>220.2</v>
-      </c>
-      <c r="M30">
-        <v>18.7</v>
-      </c>
-      <c r="N30">
-        <v>22.4</v>
-      </c>
-      <c r="O30">
-        <v>25.4</v>
-      </c>
-      <c r="P30">
-        <v>45.4</v>
-      </c>
-      <c r="Q30">
-        <v>14.4</v>
-      </c>
-      <c r="R30">
-        <v>36.4</v>
-      </c>
-      <c r="S30">
-        <v>16.7</v>
-      </c>
-      <c r="T30">
-        <v>20</v>
-      </c>
-      <c r="U30">
-        <v>25.7</v>
-      </c>
-      <c r="V30">
-        <v>53.9</v>
-      </c>
-      <c r="W30">
-        <v>11.9</v>
-      </c>
-      <c r="X30">
-        <v>34.1</v>
-      </c>
-      <c r="Y30">
-        <v>203</v>
-      </c>
-      <c r="Z30">
-        <v>159</v>
-      </c>
-      <c r="AA30">
-        <v>105</v>
-      </c>
-      <c r="AB30">
-        <v>84</v>
-      </c>
-      <c r="AC30">
-        <v>98</v>
-      </c>
-      <c r="AD30">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>107.3</v>
-      </c>
-      <c r="B31">
-        <v>103.1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31">
-        <v>22.8</v>
-      </c>
-      <c r="I31">
-        <v>215.8</v>
-      </c>
-      <c r="M31">
-        <v>21.3</v>
-      </c>
-      <c r="N31">
-        <v>26.3</v>
-      </c>
-      <c r="O31">
-        <v>23.8</v>
-      </c>
-      <c r="P31">
-        <v>46.3</v>
-      </c>
-      <c r="Q31">
-        <v>12.8</v>
-      </c>
-      <c r="R31">
-        <v>38.5</v>
-      </c>
-      <c r="S31">
-        <v>15.9</v>
-      </c>
-      <c r="T31">
-        <v>22.5</v>
-      </c>
-      <c r="U31">
-        <v>23.8</v>
-      </c>
-      <c r="V31">
-        <v>47.3</v>
-      </c>
-      <c r="W31">
-        <v>13.2</v>
-      </c>
-      <c r="X31">
-        <v>39.5</v>
-      </c>
-      <c r="Y31">
-        <v>203</v>
-      </c>
-      <c r="Z31">
-        <v>159</v>
-      </c>
-      <c r="AA31">
-        <v>105</v>
-      </c>
-      <c r="AB31">
-        <v>84</v>
-      </c>
-      <c r="AC31">
-        <v>98</v>
-      </c>
-      <c r="AD31">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD31" xr:uid="{1B590E11-52DC-4EBE-B849-4CF2AD76DA41}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LAC"/>
-        <filter val="MIA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA166A-B952-4400-95C7-BC9B81523308}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>